--- a/static/guide/portal/py_BOK-A-IAT-메뉴구조도설계서(사용자)_v1.3(20240129).xlsx
+++ b/static/guide/portal/py_BOK-A-IAT-메뉴구조도설계서(사용자)_v1.3(20240129).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebContent\static\guide\portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B51A8FE-C083-41A2-8116-54B560AC1565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF1BBFE-7F31-4A7E-B01D-55798E9BF0D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="17580" xr2:uid="{1E9DB366-6AE4-4F47-9B28-6B909BD1B54D}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7850" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7849" uniqueCount="1526">
   <si>
     <t>한국은행</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5545,10 +5545,6 @@
   </si>
   <si>
     <t>p_200183</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_200194</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6877,46 +6873,43 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6928,6 +6921,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6937,14 +6939,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6964,12 +6969,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6979,55 +6978,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7039,11 +7023,23 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7477,10 +7473,10 @@
   <dimension ref="A1:Q467"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -7505,51 +7501,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A1" s="263"/>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="263"/>
-      <c r="M1" s="263"/>
-      <c r="N1" s="263"/>
-      <c r="O1" s="263"/>
-      <c r="P1" s="263"/>
-      <c r="Q1" s="263"/>
+      <c r="A1" s="221"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221"/>
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223" t="s">
         <v>1484</v>
       </c>
-      <c r="E2" s="265"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="264" t="s">
+      <c r="E2" s="223"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="222" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="264" t="s">
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="222" t="s">
         <v>356</v>
       </c>
-      <c r="L2" s="265"/>
+      <c r="L2" s="223"/>
       <c r="M2" s="198"/>
-      <c r="N2" s="267" t="s">
+      <c r="N2" s="225" t="s">
         <v>357</v>
       </c>
-      <c r="O2" s="267"/>
-      <c r="P2" s="267"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="225"/>
       <c r="Q2" s="14" t="s">
         <v>358</v>
       </c>
@@ -7831,8 +7827,8 @@
       <c r="L11" s="21">
         <v>200194</v>
       </c>
-      <c r="M11" s="201" t="s">
-        <v>1526</v>
+      <c r="M11" s="201">
+        <v>200194</v>
       </c>
       <c r="N11" s="39">
         <v>1</v>
@@ -7932,7 +7928,7 @@
     </row>
     <row r="15" spans="1:17" ht="40.5">
       <c r="A15" s="187"/>
-      <c r="B15" s="260" t="s">
+      <c r="B15" s="231" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -7965,7 +7961,7 @@
     </row>
     <row r="16" spans="1:17" ht="13.5" customHeight="1">
       <c r="A16" s="187"/>
-      <c r="B16" s="261"/>
+      <c r="B16" s="232"/>
       <c r="C16" s="2" t="s">
         <v>1276</v>
       </c>
@@ -7996,7 +7992,7 @@
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1">
       <c r="A17" s="187"/>
-      <c r="B17" s="261"/>
+      <c r="B17" s="232"/>
       <c r="C17" s="191" t="s">
         <v>8</v>
       </c>
@@ -8021,7 +8017,7 @@
     </row>
     <row r="18" spans="1:17" ht="16.5">
       <c r="A18" s="187"/>
-      <c r="B18" s="261"/>
+      <c r="B18" s="232"/>
       <c r="C18" s="187"/>
       <c r="D18" s="143" t="s">
         <v>1482</v>
@@ -8056,7 +8052,7 @@
     </row>
     <row r="19" spans="1:17" ht="16.5">
       <c r="A19" s="187"/>
-      <c r="B19" s="261"/>
+      <c r="B19" s="232"/>
       <c r="C19" s="187"/>
       <c r="D19" s="143" t="s">
         <v>1482</v>
@@ -8091,7 +8087,7 @@
     </row>
     <row r="20" spans="1:17" ht="16.5">
       <c r="A20" s="187"/>
-      <c r="B20" s="261"/>
+      <c r="B20" s="232"/>
       <c r="C20" s="187"/>
       <c r="D20" s="143" t="s">
         <v>1482</v>
@@ -8126,7 +8122,7 @@
     </row>
     <row r="21" spans="1:17" ht="16.5">
       <c r="A21" s="187"/>
-      <c r="B21" s="261"/>
+      <c r="B21" s="232"/>
       <c r="C21" s="187"/>
       <c r="D21" s="143" t="s">
         <v>1482</v>
@@ -8159,7 +8155,7 @@
     </row>
     <row r="22" spans="1:17" ht="16.5">
       <c r="A22" s="187"/>
-      <c r="B22" s="261"/>
+      <c r="B22" s="232"/>
       <c r="C22" s="187"/>
       <c r="D22" s="143" t="s">
         <v>1482</v>
@@ -8192,7 +8188,7 @@
     </row>
     <row r="23" spans="1:17" ht="16.5">
       <c r="A23" s="187"/>
-      <c r="B23" s="261"/>
+      <c r="B23" s="232"/>
       <c r="C23" s="187"/>
       <c r="D23" s="143" t="s">
         <v>1482</v>
@@ -8225,7 +8221,7 @@
     </row>
     <row r="24" spans="1:17" ht="16.5">
       <c r="A24" s="187"/>
-      <c r="B24" s="261"/>
+      <c r="B24" s="232"/>
       <c r="C24" s="187"/>
       <c r="D24" s="143" t="s">
         <v>1482</v>
@@ -8260,7 +8256,7 @@
     </row>
     <row r="25" spans="1:17" ht="16.5">
       <c r="A25" s="187"/>
-      <c r="B25" s="261"/>
+      <c r="B25" s="232"/>
       <c r="C25" s="187"/>
       <c r="D25" s="143" t="s">
         <v>1482</v>
@@ -8293,7 +8289,7 @@
     </row>
     <row r="26" spans="1:17" ht="16.5">
       <c r="A26" s="187"/>
-      <c r="B26" s="261"/>
+      <c r="B26" s="232"/>
       <c r="C26" s="187"/>
       <c r="D26" s="143" t="s">
         <v>1482</v>
@@ -8326,7 +8322,7 @@
     </row>
     <row r="27" spans="1:17" ht="16.5">
       <c r="A27" s="187"/>
-      <c r="B27" s="261"/>
+      <c r="B27" s="232"/>
       <c r="C27" s="187"/>
       <c r="D27" s="143" t="s">
         <v>1482</v>
@@ -8361,7 +8357,7 @@
     </row>
     <row r="28" spans="1:17" ht="16.5">
       <c r="A28" s="187"/>
-      <c r="B28" s="261"/>
+      <c r="B28" s="232"/>
       <c r="C28" s="187"/>
       <c r="D28" s="143" t="s">
         <v>1482</v>
@@ -8394,7 +8390,7 @@
     </row>
     <row r="29" spans="1:17" ht="16.5">
       <c r="A29" s="187"/>
-      <c r="B29" s="261"/>
+      <c r="B29" s="232"/>
       <c r="C29" s="192"/>
       <c r="D29" s="143" t="s">
         <v>1482</v>
@@ -8427,7 +8423,7 @@
     </row>
     <row r="30" spans="1:17" ht="39.75" customHeight="1">
       <c r="A30" s="187"/>
-      <c r="B30" s="261"/>
+      <c r="B30" s="232"/>
       <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
@@ -8458,8 +8454,8 @@
     </row>
     <row r="31" spans="1:17" ht="16.5">
       <c r="A31" s="187"/>
-      <c r="B31" s="261"/>
-      <c r="C31" s="250" t="s">
+      <c r="B31" s="232"/>
+      <c r="C31" s="226" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="143" t="s">
@@ -8495,8 +8491,8 @@
     </row>
     <row r="32" spans="1:17" ht="16.5">
       <c r="A32" s="187"/>
-      <c r="B32" s="261"/>
-      <c r="C32" s="251"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="227"/>
       <c r="D32" s="143" t="s">
         <v>1429</v>
       </c>
@@ -8528,7 +8524,7 @@
     </row>
     <row r="33" spans="1:17" ht="40.5">
       <c r="A33" s="187"/>
-      <c r="B33" s="261"/>
+      <c r="B33" s="232"/>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
@@ -8559,8 +8555,8 @@
     </row>
     <row r="34" spans="1:17" ht="16.5">
       <c r="A34" s="187"/>
-      <c r="B34" s="261"/>
-      <c r="C34" s="241" t="s">
+      <c r="B34" s="232"/>
+      <c r="C34" s="228" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="143" t="s">
@@ -8594,8 +8590,8 @@
     </row>
     <row r="35" spans="1:17" ht="16.5">
       <c r="A35" s="187"/>
-      <c r="B35" s="261"/>
-      <c r="C35" s="242"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="229"/>
       <c r="D35" s="143" t="s">
         <v>794</v>
       </c>
@@ -8627,8 +8623,8 @@
     </row>
     <row r="36" spans="1:17" ht="16.5">
       <c r="A36" s="187"/>
-      <c r="B36" s="261"/>
-      <c r="C36" s="242"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="229"/>
       <c r="D36" s="143" t="s">
         <v>794</v>
       </c>
@@ -8664,8 +8660,8 @@
     </row>
     <row r="37" spans="1:17" ht="16.5">
       <c r="A37" s="187"/>
-      <c r="B37" s="261"/>
-      <c r="C37" s="242"/>
+      <c r="B37" s="232"/>
+      <c r="C37" s="229"/>
       <c r="D37" s="143" t="s">
         <v>794</v>
       </c>
@@ -8701,8 +8697,8 @@
     </row>
     <row r="38" spans="1:17" ht="16.5">
       <c r="A38" s="187"/>
-      <c r="B38" s="261"/>
-      <c r="C38" s="243"/>
+      <c r="B38" s="232"/>
+      <c r="C38" s="230"/>
       <c r="D38" s="143" t="s">
         <v>794</v>
       </c>
@@ -8738,7 +8734,7 @@
     </row>
     <row r="39" spans="1:17" ht="16.5">
       <c r="A39" s="187"/>
-      <c r="B39" s="262"/>
+      <c r="B39" s="233"/>
       <c r="C39" s="2" t="s">
         <v>18</v>
       </c>
@@ -8767,7 +8763,7 @@
     </row>
     <row r="40" spans="1:17" ht="16.5">
       <c r="A40" s="187"/>
-      <c r="B40" s="260" t="s">
+      <c r="B40" s="231" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="2"/>
@@ -8802,7 +8798,7 @@
     </row>
     <row r="41" spans="1:17" ht="16.5">
       <c r="A41" s="187"/>
-      <c r="B41" s="261"/>
+      <c r="B41" s="232"/>
       <c r="C41" s="2"/>
       <c r="D41" s="143" t="s">
         <v>1429</v>
@@ -8835,7 +8831,7 @@
     </row>
     <row r="42" spans="1:17" ht="16.5">
       <c r="A42" s="188"/>
-      <c r="B42" s="262"/>
+      <c r="B42" s="233"/>
       <c r="C42" s="2"/>
       <c r="D42" s="143" t="s">
         <v>1429</v>
@@ -8867,10 +8863,10 @@
       <c r="Q42" s="137"/>
     </row>
     <row r="43" spans="1:17" ht="16.5">
-      <c r="A43" s="235" t="s">
+      <c r="A43" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="235" t="s">
+      <c r="B43" s="234" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="2"/>
@@ -8900,9 +8896,9 @@
       <c r="Q43" s="137"/>
     </row>
     <row r="44" spans="1:17" ht="16.5">
-      <c r="A44" s="236"/>
-      <c r="B44" s="236"/>
-      <c r="C44" s="241" t="s">
+      <c r="A44" s="235"/>
+      <c r="B44" s="235"/>
+      <c r="C44" s="228" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="143" t="s">
@@ -8935,9 +8931,9 @@
       <c r="Q44" s="137"/>
     </row>
     <row r="45" spans="1:17" ht="16.5">
-      <c r="A45" s="236"/>
-      <c r="B45" s="236"/>
-      <c r="C45" s="242"/>
+      <c r="A45" s="235"/>
+      <c r="B45" s="235"/>
+      <c r="C45" s="229"/>
       <c r="D45" s="143" t="s">
         <v>1482</v>
       </c>
@@ -8968,9 +8964,9 @@
       <c r="Q45" s="137"/>
     </row>
     <row r="46" spans="1:17" ht="16.5">
-      <c r="A46" s="236"/>
-      <c r="B46" s="236"/>
-      <c r="C46" s="242"/>
+      <c r="A46" s="235"/>
+      <c r="B46" s="235"/>
+      <c r="C46" s="229"/>
       <c r="D46" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9001,9 +8997,9 @@
       <c r="Q46" s="137"/>
     </row>
     <row r="47" spans="1:17" ht="16.5">
-      <c r="A47" s="236"/>
-      <c r="B47" s="236"/>
-      <c r="C47" s="242"/>
+      <c r="A47" s="235"/>
+      <c r="B47" s="235"/>
+      <c r="C47" s="229"/>
       <c r="D47" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9034,9 +9030,9 @@
       <c r="Q47" s="137"/>
     </row>
     <row r="48" spans="1:17" ht="16.5">
-      <c r="A48" s="236"/>
-      <c r="B48" s="236"/>
-      <c r="C48" s="242"/>
+      <c r="A48" s="235"/>
+      <c r="B48" s="235"/>
+      <c r="C48" s="229"/>
       <c r="D48" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9067,9 +9063,9 @@
       <c r="Q48" s="137"/>
     </row>
     <row r="49" spans="1:17" ht="16.5">
-      <c r="A49" s="236"/>
-      <c r="B49" s="236"/>
-      <c r="C49" s="243"/>
+      <c r="A49" s="235"/>
+      <c r="B49" s="235"/>
+      <c r="C49" s="230"/>
       <c r="D49" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9100,9 +9096,9 @@
       <c r="Q49" s="137"/>
     </row>
     <row r="50" spans="1:17" ht="16.5">
-      <c r="A50" s="236"/>
-      <c r="B50" s="236"/>
-      <c r="C50" s="241" t="s">
+      <c r="A50" s="235"/>
+      <c r="B50" s="235"/>
+      <c r="C50" s="228" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="143" t="s">
@@ -9135,9 +9131,9 @@
       <c r="Q50" s="137"/>
     </row>
     <row r="51" spans="1:17" ht="16.5">
-      <c r="A51" s="236"/>
-      <c r="B51" s="236"/>
-      <c r="C51" s="243"/>
+      <c r="A51" s="235"/>
+      <c r="B51" s="235"/>
+      <c r="C51" s="230"/>
       <c r="D51" s="143" t="s">
         <v>1429</v>
       </c>
@@ -9168,9 +9164,9 @@
       <c r="Q51" s="137"/>
     </row>
     <row r="52" spans="1:17" ht="30" customHeight="1">
-      <c r="A52" s="236"/>
-      <c r="B52" s="236"/>
-      <c r="C52" s="241" t="s">
+      <c r="A52" s="235"/>
+      <c r="B52" s="235"/>
+      <c r="C52" s="228" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="143" t="s">
@@ -9203,9 +9199,9 @@
       <c r="Q52" s="137"/>
     </row>
     <row r="53" spans="1:17" ht="16.5">
-      <c r="A53" s="236"/>
-      <c r="B53" s="236"/>
-      <c r="C53" s="242"/>
+      <c r="A53" s="235"/>
+      <c r="B53" s="235"/>
+      <c r="C53" s="229"/>
       <c r="D53" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9238,9 +9234,9 @@
       <c r="Q53" s="137"/>
     </row>
     <row r="54" spans="1:17" ht="16.5">
-      <c r="A54" s="236"/>
-      <c r="B54" s="236"/>
-      <c r="C54" s="242"/>
+      <c r="A54" s="235"/>
+      <c r="B54" s="235"/>
+      <c r="C54" s="229"/>
       <c r="D54" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9271,9 +9267,9 @@
       <c r="Q54" s="137"/>
     </row>
     <row r="55" spans="1:17" ht="16.5">
-      <c r="A55" s="236"/>
-      <c r="B55" s="236"/>
-      <c r="C55" s="242"/>
+      <c r="A55" s="235"/>
+      <c r="B55" s="235"/>
+      <c r="C55" s="229"/>
       <c r="D55" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9304,9 +9300,9 @@
       <c r="Q55" s="137"/>
     </row>
     <row r="56" spans="1:17" ht="16.5">
-      <c r="A56" s="236"/>
-      <c r="B56" s="236"/>
-      <c r="C56" s="242"/>
+      <c r="A56" s="235"/>
+      <c r="B56" s="235"/>
+      <c r="C56" s="229"/>
       <c r="D56" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9337,9 +9333,9 @@
       <c r="Q56" s="137"/>
     </row>
     <row r="57" spans="1:17" ht="16.5">
-      <c r="A57" s="236"/>
-      <c r="B57" s="236"/>
-      <c r="C57" s="242"/>
+      <c r="A57" s="235"/>
+      <c r="B57" s="235"/>
+      <c r="C57" s="229"/>
       <c r="D57" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9370,9 +9366,9 @@
       <c r="Q57" s="137"/>
     </row>
     <row r="58" spans="1:17" ht="16.5">
-      <c r="A58" s="236"/>
-      <c r="B58" s="236"/>
-      <c r="C58" s="243"/>
+      <c r="A58" s="235"/>
+      <c r="B58" s="235"/>
+      <c r="C58" s="230"/>
       <c r="D58" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9403,9 +9399,9 @@
       <c r="Q58" s="137"/>
     </row>
     <row r="59" spans="1:17" ht="40.5">
-      <c r="A59" s="236"/>
-      <c r="B59" s="236"/>
-      <c r="C59" s="241" t="s">
+      <c r="A59" s="235"/>
+      <c r="B59" s="235"/>
+      <c r="C59" s="228" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="143" t="s">
@@ -9438,9 +9434,9 @@
       <c r="Q59" s="137"/>
     </row>
     <row r="60" spans="1:17" ht="16.5">
-      <c r="A60" s="236"/>
-      <c r="B60" s="236"/>
-      <c r="C60" s="243"/>
+      <c r="A60" s="235"/>
+      <c r="B60" s="235"/>
+      <c r="C60" s="230"/>
       <c r="D60" s="143" t="s">
         <v>1429</v>
       </c>
@@ -9471,8 +9467,8 @@
       <c r="Q60" s="137"/>
     </row>
     <row r="61" spans="1:17" ht="16.5">
-      <c r="A61" s="236"/>
-      <c r="B61" s="235" t="s">
+      <c r="A61" s="235"/>
+      <c r="B61" s="234" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="2"/>
@@ -9502,8 +9498,8 @@
       <c r="Q61" s="137"/>
     </row>
     <row r="62" spans="1:17" ht="67.5">
-      <c r="A62" s="236"/>
-      <c r="B62" s="236"/>
+      <c r="A62" s="235"/>
+      <c r="B62" s="235"/>
       <c r="C62" s="174" t="s">
         <v>26</v>
       </c>
@@ -9533,9 +9529,9 @@
       <c r="Q62" s="137"/>
     </row>
     <row r="63" spans="1:17" ht="16.5">
-      <c r="A63" s="236"/>
-      <c r="B63" s="236"/>
-      <c r="C63" s="241" t="s">
+      <c r="A63" s="235"/>
+      <c r="B63" s="235"/>
+      <c r="C63" s="228" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="143" t="s">
@@ -9570,9 +9566,9 @@
       <c r="Q63" s="137"/>
     </row>
     <row r="64" spans="1:17" ht="16.5">
-      <c r="A64" s="236"/>
-      <c r="B64" s="236"/>
-      <c r="C64" s="242"/>
+      <c r="A64" s="235"/>
+      <c r="B64" s="235"/>
+      <c r="C64" s="229"/>
       <c r="D64" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9603,9 +9599,9 @@
       <c r="Q64" s="137"/>
     </row>
     <row r="65" spans="1:17" ht="16.5">
-      <c r="A65" s="236"/>
-      <c r="B65" s="236"/>
-      <c r="C65" s="242"/>
+      <c r="A65" s="235"/>
+      <c r="B65" s="235"/>
+      <c r="C65" s="229"/>
       <c r="D65" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9638,9 +9634,9 @@
       <c r="Q65" s="137"/>
     </row>
     <row r="66" spans="1:17" ht="16.5">
-      <c r="A66" s="236"/>
-      <c r="B66" s="236"/>
-      <c r="C66" s="242"/>
+      <c r="A66" s="235"/>
+      <c r="B66" s="235"/>
+      <c r="C66" s="229"/>
       <c r="D66" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9671,9 +9667,9 @@
       <c r="Q66" s="137"/>
     </row>
     <row r="67" spans="1:17" ht="16.5">
-      <c r="A67" s="236"/>
-      <c r="B67" s="236"/>
-      <c r="C67" s="242"/>
+      <c r="A67" s="235"/>
+      <c r="B67" s="235"/>
+      <c r="C67" s="229"/>
       <c r="D67" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9704,9 +9700,9 @@
       <c r="Q67" s="137"/>
     </row>
     <row r="68" spans="1:17" ht="16.5">
-      <c r="A68" s="236"/>
-      <c r="B68" s="236"/>
-      <c r="C68" s="242"/>
+      <c r="A68" s="235"/>
+      <c r="B68" s="235"/>
+      <c r="C68" s="229"/>
       <c r="D68" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9737,9 +9733,9 @@
       <c r="Q68" s="137"/>
     </row>
     <row r="69" spans="1:17" ht="16.5">
-      <c r="A69" s="236"/>
-      <c r="B69" s="236"/>
-      <c r="C69" s="242"/>
+      <c r="A69" s="235"/>
+      <c r="B69" s="235"/>
+      <c r="C69" s="229"/>
       <c r="D69" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9770,9 +9766,9 @@
       <c r="Q69" s="137"/>
     </row>
     <row r="70" spans="1:17" ht="16.5">
-      <c r="A70" s="236"/>
-      <c r="B70" s="236"/>
-      <c r="C70" s="242"/>
+      <c r="A70" s="235"/>
+      <c r="B70" s="235"/>
+      <c r="C70" s="229"/>
       <c r="D70" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9803,9 +9799,9 @@
       <c r="Q70" s="137"/>
     </row>
     <row r="71" spans="1:17" ht="16.5">
-      <c r="A71" s="236"/>
-      <c r="B71" s="236"/>
-      <c r="C71" s="242"/>
+      <c r="A71" s="235"/>
+      <c r="B71" s="235"/>
+      <c r="C71" s="229"/>
       <c r="D71" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9838,9 +9834,9 @@
       <c r="Q71" s="137"/>
     </row>
     <row r="72" spans="1:17" ht="16.5">
-      <c r="A72" s="236"/>
-      <c r="B72" s="236"/>
-      <c r="C72" s="242"/>
+      <c r="A72" s="235"/>
+      <c r="B72" s="235"/>
+      <c r="C72" s="229"/>
       <c r="D72" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9871,9 +9867,9 @@
       <c r="Q72" s="137"/>
     </row>
     <row r="73" spans="1:17" ht="16.5">
-      <c r="A73" s="236"/>
-      <c r="B73" s="236"/>
-      <c r="C73" s="242"/>
+      <c r="A73" s="235"/>
+      <c r="B73" s="235"/>
+      <c r="C73" s="229"/>
       <c r="D73" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9904,9 +9900,9 @@
       <c r="Q73" s="137"/>
     </row>
     <row r="74" spans="1:17" ht="16.5">
-      <c r="A74" s="236"/>
-      <c r="B74" s="236"/>
-      <c r="C74" s="243"/>
+      <c r="A74" s="235"/>
+      <c r="B74" s="235"/>
+      <c r="C74" s="230"/>
       <c r="D74" s="143" t="s">
         <v>1482</v>
       </c>
@@ -9937,9 +9933,9 @@
       <c r="Q74" s="137"/>
     </row>
     <row r="75" spans="1:17" ht="16.5">
-      <c r="A75" s="236"/>
-      <c r="B75" s="236"/>
-      <c r="C75" s="257" t="s">
+      <c r="A75" s="235"/>
+      <c r="B75" s="235"/>
+      <c r="C75" s="237" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="144" t="s">
@@ -9972,9 +9968,9 @@
       <c r="Q75" s="137"/>
     </row>
     <row r="76" spans="1:17" ht="16.5">
-      <c r="A76" s="236"/>
-      <c r="B76" s="236"/>
-      <c r="C76" s="258"/>
+      <c r="A76" s="235"/>
+      <c r="B76" s="235"/>
+      <c r="C76" s="238"/>
       <c r="D76" s="144" t="s">
         <v>1429</v>
       </c>
@@ -10009,9 +10005,9 @@
       <c r="Q76" s="137"/>
     </row>
     <row r="77" spans="1:17" ht="16.5">
-      <c r="A77" s="236"/>
-      <c r="B77" s="236"/>
-      <c r="C77" s="259"/>
+      <c r="A77" s="235"/>
+      <c r="B77" s="235"/>
+      <c r="C77" s="239"/>
       <c r="D77" s="144" t="s">
         <v>1429</v>
       </c>
@@ -10042,8 +10038,8 @@
       <c r="Q77" s="137"/>
     </row>
     <row r="78" spans="1:17" ht="16.5">
-      <c r="A78" s="236"/>
-      <c r="B78" s="235" t="s">
+      <c r="A78" s="235"/>
+      <c r="B78" s="234" t="s">
         <v>29</v>
       </c>
       <c r="C78" s="2"/>
@@ -10073,8 +10069,8 @@
       <c r="Q78" s="137"/>
     </row>
     <row r="79" spans="1:17" ht="54">
-      <c r="A79" s="236"/>
-      <c r="B79" s="236"/>
+      <c r="A79" s="235"/>
+      <c r="B79" s="235"/>
       <c r="C79" s="2" t="s">
         <v>30</v>
       </c>
@@ -10108,9 +10104,9 @@
       <c r="Q79" s="137"/>
     </row>
     <row r="80" spans="1:17" ht="16.5">
-      <c r="A80" s="236"/>
-      <c r="B80" s="236"/>
-      <c r="C80" s="238" t="s">
+      <c r="A80" s="235"/>
+      <c r="B80" s="235"/>
+      <c r="C80" s="240" t="s">
         <v>1284</v>
       </c>
       <c r="D80" s="146" t="s">
@@ -10140,12 +10136,12 @@
       </c>
       <c r="O80" s="42"/>
       <c r="P80" s="42"/>
-      <c r="Q80" s="228"/>
+      <c r="Q80" s="243"/>
     </row>
     <row r="81" spans="1:17" ht="16.5">
-      <c r="A81" s="236"/>
-      <c r="B81" s="236"/>
-      <c r="C81" s="239"/>
+      <c r="A81" s="235"/>
+      <c r="B81" s="235"/>
+      <c r="C81" s="241"/>
       <c r="D81" s="146" t="s">
         <v>1429</v>
       </c>
@@ -10173,12 +10169,12 @@
       </c>
       <c r="O81" s="42"/>
       <c r="P81" s="42"/>
-      <c r="Q81" s="256"/>
+      <c r="Q81" s="244"/>
     </row>
     <row r="82" spans="1:17" ht="16.5">
-      <c r="A82" s="236"/>
-      <c r="B82" s="236"/>
-      <c r="C82" s="239"/>
+      <c r="A82" s="235"/>
+      <c r="B82" s="235"/>
+      <c r="C82" s="241"/>
       <c r="D82" s="146" t="s">
         <v>1429</v>
       </c>
@@ -10206,12 +10202,12 @@
       </c>
       <c r="O82" s="42"/>
       <c r="P82" s="42"/>
-      <c r="Q82" s="256"/>
+      <c r="Q82" s="244"/>
     </row>
     <row r="83" spans="1:17" ht="16.5">
-      <c r="A83" s="236"/>
-      <c r="B83" s="236"/>
-      <c r="C83" s="239"/>
+      <c r="A83" s="235"/>
+      <c r="B83" s="235"/>
+      <c r="C83" s="241"/>
       <c r="D83" s="146" t="s">
         <v>1429</v>
       </c>
@@ -10239,12 +10235,12 @@
       </c>
       <c r="O83" s="42"/>
       <c r="P83" s="42"/>
-      <c r="Q83" s="256"/>
+      <c r="Q83" s="244"/>
     </row>
     <row r="84" spans="1:17" ht="16.5">
-      <c r="A84" s="236"/>
-      <c r="B84" s="236"/>
-      <c r="C84" s="239"/>
+      <c r="A84" s="235"/>
+      <c r="B84" s="235"/>
+      <c r="C84" s="241"/>
       <c r="D84" s="146" t="s">
         <v>1429</v>
       </c>
@@ -10272,12 +10268,12 @@
       </c>
       <c r="O84" s="42"/>
       <c r="P84" s="42"/>
-      <c r="Q84" s="256"/>
+      <c r="Q84" s="244"/>
     </row>
     <row r="85" spans="1:17" ht="16.5">
-      <c r="A85" s="236"/>
-      <c r="B85" s="236"/>
-      <c r="C85" s="240"/>
+      <c r="A85" s="235"/>
+      <c r="B85" s="235"/>
+      <c r="C85" s="242"/>
       <c r="D85" s="146" t="s">
         <v>1429</v>
       </c>
@@ -10305,11 +10301,11 @@
       </c>
       <c r="O85" s="42"/>
       <c r="P85" s="42"/>
-      <c r="Q85" s="229"/>
+      <c r="Q85" s="245"/>
     </row>
     <row r="86" spans="1:17" ht="40.5">
-      <c r="A86" s="236"/>
-      <c r="B86" s="236"/>
+      <c r="A86" s="235"/>
+      <c r="B86" s="235"/>
       <c r="C86" s="184" t="s">
         <v>1285</v>
       </c>
@@ -10339,8 +10335,8 @@
       <c r="Q86" s="137"/>
     </row>
     <row r="87" spans="1:17" ht="27">
-      <c r="A87" s="236"/>
-      <c r="B87" s="236"/>
+      <c r="A87" s="235"/>
+      <c r="B87" s="235"/>
       <c r="C87" s="2" t="s">
         <v>31</v>
       </c>
@@ -10370,8 +10366,8 @@
       <c r="Q87" s="137"/>
     </row>
     <row r="88" spans="1:17" ht="16.5">
-      <c r="A88" s="236"/>
-      <c r="B88" s="236"/>
+      <c r="A88" s="235"/>
+      <c r="B88" s="235"/>
       <c r="C88" s="2" t="s">
         <v>32</v>
       </c>
@@ -10401,9 +10397,9 @@
       <c r="Q88" s="137"/>
     </row>
     <row r="89" spans="1:17" ht="16.5">
-      <c r="A89" s="236"/>
-      <c r="B89" s="236"/>
-      <c r="C89" s="257" t="s">
+      <c r="A89" s="235"/>
+      <c r="B89" s="235"/>
+      <c r="C89" s="237" t="s">
         <v>1441</v>
       </c>
       <c r="D89" s="144" t="s">
@@ -10438,9 +10434,9 @@
       <c r="Q89" s="137"/>
     </row>
     <row r="90" spans="1:17" ht="16.5">
-      <c r="A90" s="236"/>
-      <c r="B90" s="236"/>
-      <c r="C90" s="258"/>
+      <c r="A90" s="235"/>
+      <c r="B90" s="235"/>
+      <c r="C90" s="238"/>
       <c r="D90" s="144" t="s">
         <v>1429</v>
       </c>
@@ -10473,9 +10469,9 @@
       <c r="Q90" s="137"/>
     </row>
     <row r="91" spans="1:17" ht="16.5">
-      <c r="A91" s="236"/>
-      <c r="B91" s="236"/>
-      <c r="C91" s="259"/>
+      <c r="A91" s="235"/>
+      <c r="B91" s="235"/>
+      <c r="C91" s="239"/>
       <c r="D91" s="144" t="s">
         <v>1429</v>
       </c>
@@ -10506,8 +10502,8 @@
       <c r="Q91" s="137"/>
     </row>
     <row r="92" spans="1:17" ht="16.5">
-      <c r="A92" s="236"/>
-      <c r="B92" s="236"/>
+      <c r="A92" s="235"/>
+      <c r="B92" s="235"/>
       <c r="C92" s="65" t="s">
         <v>1443</v>
       </c>
@@ -10541,8 +10537,8 @@
       <c r="Q92" s="137"/>
     </row>
     <row r="93" spans="1:17" ht="16.5">
-      <c r="A93" s="236"/>
-      <c r="B93" s="236"/>
+      <c r="A93" s="235"/>
+      <c r="B93" s="235"/>
       <c r="C93" s="2" t="s">
         <v>1444</v>
       </c>
@@ -10576,9 +10572,9 @@
       <c r="Q93" s="137"/>
     </row>
     <row r="94" spans="1:17" ht="16.5">
-      <c r="A94" s="236"/>
-      <c r="B94" s="236"/>
-      <c r="C94" s="241" t="s">
+      <c r="A94" s="235"/>
+      <c r="B94" s="235"/>
+      <c r="C94" s="228" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="146" t="s">
@@ -10611,9 +10607,9 @@
       <c r="Q94" s="137"/>
     </row>
     <row r="95" spans="1:17" ht="16.5">
-      <c r="A95" s="236"/>
-      <c r="B95" s="236"/>
-      <c r="C95" s="242"/>
+      <c r="A95" s="235"/>
+      <c r="B95" s="235"/>
+      <c r="C95" s="229"/>
       <c r="D95" s="146" t="s">
         <v>1429</v>
       </c>
@@ -10644,9 +10640,9 @@
       <c r="Q95" s="137"/>
     </row>
     <row r="96" spans="1:17" ht="16.5">
-      <c r="A96" s="236"/>
-      <c r="B96" s="236"/>
-      <c r="C96" s="242"/>
+      <c r="A96" s="235"/>
+      <c r="B96" s="235"/>
+      <c r="C96" s="229"/>
       <c r="D96" s="146" t="s">
         <v>1429</v>
       </c>
@@ -10677,9 +10673,9 @@
       <c r="Q96" s="137"/>
     </row>
     <row r="97" spans="1:17" ht="16.5">
-      <c r="A97" s="236"/>
-      <c r="B97" s="236"/>
-      <c r="C97" s="242"/>
+      <c r="A97" s="235"/>
+      <c r="B97" s="235"/>
+      <c r="C97" s="229"/>
       <c r="D97" s="146" t="s">
         <v>1429</v>
       </c>
@@ -10710,9 +10706,9 @@
       <c r="Q97" s="137"/>
     </row>
     <row r="98" spans="1:17" ht="16.5">
-      <c r="A98" s="236"/>
-      <c r="B98" s="236"/>
-      <c r="C98" s="243"/>
+      <c r="A98" s="235"/>
+      <c r="B98" s="235"/>
+      <c r="C98" s="230"/>
       <c r="D98" s="146" t="s">
         <v>1429</v>
       </c>
@@ -10743,8 +10739,8 @@
       <c r="Q98" s="137"/>
     </row>
     <row r="99" spans="1:17" ht="108">
-      <c r="A99" s="236"/>
-      <c r="B99" s="236"/>
+      <c r="A99" s="235"/>
+      <c r="B99" s="235"/>
       <c r="C99" s="137" t="s">
         <v>1286</v>
       </c>
@@ -10774,8 +10770,8 @@
       <c r="Q99" s="137"/>
     </row>
     <row r="100" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A100" s="236"/>
-      <c r="B100" s="236"/>
+      <c r="A100" s="235"/>
+      <c r="B100" s="235"/>
       <c r="C100" s="137" t="s">
         <v>1287</v>
       </c>
@@ -10805,8 +10801,8 @@
       <c r="Q100" s="137"/>
     </row>
     <row r="101" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A101" s="236"/>
-      <c r="B101" s="236"/>
+      <c r="A101" s="235"/>
+      <c r="B101" s="235"/>
       <c r="C101" s="137" t="s">
         <v>1288</v>
       </c>
@@ -10836,8 +10832,8 @@
       <c r="Q101" s="137"/>
     </row>
     <row r="102" spans="1:17" ht="16.5">
-      <c r="A102" s="236"/>
-      <c r="B102" s="235" t="s">
+      <c r="A102" s="235"/>
+      <c r="B102" s="234" t="s">
         <v>34</v>
       </c>
       <c r="C102" s="2"/>
@@ -10865,9 +10861,9 @@
       <c r="Q102" s="137"/>
     </row>
     <row r="103" spans="1:17" ht="16.5">
-      <c r="A103" s="236"/>
-      <c r="B103" s="236"/>
-      <c r="C103" s="241" t="s">
+      <c r="A103" s="235"/>
+      <c r="B103" s="235"/>
+      <c r="C103" s="228" t="s">
         <v>35</v>
       </c>
       <c r="D103" s="143" t="s">
@@ -10900,9 +10896,9 @@
       <c r="Q103" s="137"/>
     </row>
     <row r="104" spans="1:17" ht="16.5">
-      <c r="A104" s="236"/>
-      <c r="B104" s="236"/>
-      <c r="C104" s="242"/>
+      <c r="A104" s="235"/>
+      <c r="B104" s="235"/>
+      <c r="C104" s="229"/>
       <c r="D104" s="143" t="s">
         <v>1482</v>
       </c>
@@ -10933,9 +10929,9 @@
       <c r="Q104" s="137"/>
     </row>
     <row r="105" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A105" s="236"/>
-      <c r="B105" s="236"/>
-      <c r="C105" s="242"/>
+      <c r="A105" s="235"/>
+      <c r="B105" s="235"/>
+      <c r="C105" s="229"/>
       <c r="D105" s="143" t="s">
         <v>1482</v>
       </c>
@@ -10966,9 +10962,9 @@
       <c r="Q105" s="137"/>
     </row>
     <row r="106" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A106" s="236"/>
-      <c r="B106" s="236"/>
-      <c r="C106" s="242"/>
+      <c r="A106" s="235"/>
+      <c r="B106" s="235"/>
+      <c r="C106" s="229"/>
       <c r="D106" s="143" t="s">
         <v>1482</v>
       </c>
@@ -10999,9 +10995,9 @@
       <c r="Q106" s="137"/>
     </row>
     <row r="107" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A107" s="236"/>
-      <c r="B107" s="236"/>
-      <c r="C107" s="242"/>
+      <c r="A107" s="235"/>
+      <c r="B107" s="235"/>
+      <c r="C107" s="229"/>
       <c r="D107" s="143" t="s">
         <v>1482</v>
       </c>
@@ -11032,9 +11028,9 @@
       <c r="Q107" s="137"/>
     </row>
     <row r="108" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A108" s="236"/>
-      <c r="B108" s="236"/>
-      <c r="C108" s="243"/>
+      <c r="A108" s="235"/>
+      <c r="B108" s="235"/>
+      <c r="C108" s="230"/>
       <c r="D108" s="143" t="s">
         <v>1482</v>
       </c>
@@ -11065,9 +11061,9 @@
       <c r="Q108" s="137"/>
     </row>
     <row r="109" spans="1:17" ht="16.5">
-      <c r="A109" s="236"/>
-      <c r="B109" s="236"/>
-      <c r="C109" s="250" t="s">
+      <c r="A109" s="235"/>
+      <c r="B109" s="235"/>
+      <c r="C109" s="226" t="s">
         <v>36</v>
       </c>
       <c r="D109" s="143" t="s">
@@ -11100,9 +11096,9 @@
       <c r="Q109" s="137"/>
     </row>
     <row r="110" spans="1:17" ht="16.5">
-      <c r="A110" s="236"/>
-      <c r="B110" s="236"/>
-      <c r="C110" s="255"/>
+      <c r="A110" s="235"/>
+      <c r="B110" s="235"/>
+      <c r="C110" s="246"/>
       <c r="D110" s="143" t="s">
         <v>1482</v>
       </c>
@@ -11133,9 +11129,9 @@
       <c r="Q110" s="137"/>
     </row>
     <row r="111" spans="1:17" ht="16.5">
-      <c r="A111" s="236"/>
-      <c r="B111" s="236"/>
-      <c r="C111" s="255"/>
+      <c r="A111" s="235"/>
+      <c r="B111" s="235"/>
+      <c r="C111" s="246"/>
       <c r="D111" s="143" t="s">
         <v>1482</v>
       </c>
@@ -11166,9 +11162,9 @@
       <c r="Q111" s="137"/>
     </row>
     <row r="112" spans="1:17" ht="16.5">
-      <c r="A112" s="236"/>
-      <c r="B112" s="236"/>
-      <c r="C112" s="255"/>
+      <c r="A112" s="235"/>
+      <c r="B112" s="235"/>
+      <c r="C112" s="246"/>
       <c r="D112" s="143" t="s">
         <v>1482</v>
       </c>
@@ -11199,9 +11195,9 @@
       <c r="Q112" s="137"/>
     </row>
     <row r="113" spans="1:17" ht="16.5">
-      <c r="A113" s="236"/>
-      <c r="B113" s="236"/>
-      <c r="C113" s="255"/>
+      <c r="A113" s="235"/>
+      <c r="B113" s="235"/>
+      <c r="C113" s="246"/>
       <c r="D113" s="143" t="s">
         <v>1482</v>
       </c>
@@ -11232,9 +11228,9 @@
       <c r="Q113" s="137"/>
     </row>
     <row r="114" spans="1:17" ht="16.5">
-      <c r="A114" s="236"/>
-      <c r="B114" s="236"/>
-      <c r="C114" s="255"/>
+      <c r="A114" s="235"/>
+      <c r="B114" s="235"/>
+      <c r="C114" s="246"/>
       <c r="D114" s="143" t="s">
         <v>1482</v>
       </c>
@@ -11265,9 +11261,9 @@
       <c r="Q114" s="137"/>
     </row>
     <row r="115" spans="1:17" ht="16.5">
-      <c r="A115" s="236"/>
-      <c r="B115" s="236"/>
-      <c r="C115" s="251"/>
+      <c r="A115" s="235"/>
+      <c r="B115" s="235"/>
+      <c r="C115" s="227"/>
       <c r="D115" s="143" t="s">
         <v>1482</v>
       </c>
@@ -11298,8 +11294,8 @@
       <c r="Q115" s="137"/>
     </row>
     <row r="116" spans="1:17" ht="27">
-      <c r="A116" s="236"/>
-      <c r="B116" s="236"/>
+      <c r="A116" s="235"/>
+      <c r="B116" s="235"/>
       <c r="C116" s="2" t="s">
         <v>37</v>
       </c>
@@ -11329,8 +11325,8 @@
       <c r="Q116" s="137"/>
     </row>
     <row r="117" spans="1:17" ht="40.5">
-      <c r="A117" s="236"/>
-      <c r="B117" s="236"/>
+      <c r="A117" s="235"/>
+      <c r="B117" s="235"/>
       <c r="C117" s="2" t="s">
         <v>38</v>
       </c>
@@ -11360,7 +11356,7 @@
       <c r="Q117" s="137"/>
     </row>
     <row r="118" spans="1:17" ht="16.5">
-      <c r="A118" s="236"/>
+      <c r="A118" s="235"/>
       <c r="B118" s="142" t="s">
         <v>39</v>
       </c>
@@ -11391,8 +11387,8 @@
       <c r="Q118" s="137"/>
     </row>
     <row r="119" spans="1:17" ht="16.5">
-      <c r="A119" s="236"/>
-      <c r="B119" s="235" t="s">
+      <c r="A119" s="235"/>
+      <c r="B119" s="234" t="s">
         <v>89</v>
       </c>
       <c r="C119" s="2"/>
@@ -11422,8 +11418,8 @@
       <c r="Q119" s="137"/>
     </row>
     <row r="120" spans="1:17" ht="22.5" customHeight="1">
-      <c r="A120" s="236"/>
-      <c r="B120" s="236"/>
+      <c r="A120" s="235"/>
+      <c r="B120" s="235"/>
       <c r="C120" s="2" t="s">
         <v>40</v>
       </c>
@@ -11453,8 +11449,8 @@
       <c r="Q120" s="137"/>
     </row>
     <row r="121" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A121" s="236"/>
-      <c r="B121" s="237"/>
+      <c r="A121" s="235"/>
+      <c r="B121" s="236"/>
       <c r="C121" s="2" t="s">
         <v>41</v>
       </c>
@@ -11484,8 +11480,8 @@
       <c r="Q121" s="137"/>
     </row>
     <row r="122" spans="1:17" ht="16.5">
-      <c r="A122" s="236"/>
-      <c r="B122" s="235" t="s">
+      <c r="A122" s="235"/>
+      <c r="B122" s="234" t="s">
         <v>42</v>
       </c>
       <c r="C122" s="2"/>
@@ -11513,8 +11509,8 @@
       <c r="Q122" s="137"/>
     </row>
     <row r="123" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A123" s="236"/>
-      <c r="B123" s="236"/>
+      <c r="A123" s="235"/>
+      <c r="B123" s="235"/>
       <c r="C123" s="2" t="s">
         <v>43</v>
       </c>
@@ -11544,8 +11540,8 @@
       <c r="Q123" s="137"/>
     </row>
     <row r="124" spans="1:17" ht="44.25" customHeight="1">
-      <c r="A124" s="236"/>
-      <c r="B124" s="236"/>
+      <c r="A124" s="235"/>
+      <c r="B124" s="235"/>
       <c r="C124" s="2" t="s">
         <v>44</v>
       </c>
@@ -11575,8 +11571,8 @@
       <c r="Q124" s="137"/>
     </row>
     <row r="125" spans="1:17" ht="57" customHeight="1">
-      <c r="A125" s="236"/>
-      <c r="B125" s="236"/>
+      <c r="A125" s="235"/>
+      <c r="B125" s="235"/>
       <c r="C125" s="2" t="s">
         <v>1293</v>
       </c>
@@ -11606,8 +11602,8 @@
       <c r="Q125" s="137"/>
     </row>
     <row r="126" spans="1:17" ht="54">
-      <c r="A126" s="236"/>
-      <c r="B126" s="236"/>
+      <c r="A126" s="235"/>
+      <c r="B126" s="235"/>
       <c r="C126" s="2" t="s">
         <v>46</v>
       </c>
@@ -11637,8 +11633,8 @@
       <c r="Q126" s="137"/>
     </row>
     <row r="127" spans="1:17" ht="16.5">
-      <c r="A127" s="236"/>
-      <c r="B127" s="235" t="s">
+      <c r="A127" s="235"/>
+      <c r="B127" s="234" t="s">
         <v>47</v>
       </c>
       <c r="C127" s="2"/>
@@ -11672,8 +11668,8 @@
       <c r="Q127" s="137"/>
     </row>
     <row r="128" spans="1:17" ht="16.5">
-      <c r="A128" s="236"/>
-      <c r="B128" s="236"/>
+      <c r="A128" s="235"/>
+      <c r="B128" s="235"/>
       <c r="C128" s="2"/>
       <c r="D128" s="146" t="s">
         <v>1429</v>
@@ -11705,8 +11701,8 @@
       <c r="Q128" s="137"/>
     </row>
     <row r="129" spans="1:17" ht="16.5">
-      <c r="A129" s="236"/>
-      <c r="B129" s="236"/>
+      <c r="A129" s="235"/>
+      <c r="B129" s="235"/>
       <c r="C129" s="2"/>
       <c r="D129" s="146" t="s">
         <v>1429</v>
@@ -11738,8 +11734,8 @@
       <c r="Q129" s="137"/>
     </row>
     <row r="130" spans="1:17" ht="16.5">
-      <c r="A130" s="236"/>
-      <c r="B130" s="237"/>
+      <c r="A130" s="235"/>
+      <c r="B130" s="236"/>
       <c r="C130" s="2"/>
       <c r="D130" s="146" t="s">
         <v>1429</v>
@@ -11771,8 +11767,8 @@
       <c r="Q130" s="137"/>
     </row>
     <row r="131" spans="1:17" ht="16.5">
-      <c r="A131" s="236"/>
-      <c r="B131" s="235" t="s">
+      <c r="A131" s="235"/>
+      <c r="B131" s="234" t="s">
         <v>48</v>
       </c>
       <c r="C131" s="2"/>
@@ -11802,8 +11798,8 @@
       <c r="Q131" s="137"/>
     </row>
     <row r="132" spans="1:17" ht="16.5">
-      <c r="A132" s="236"/>
-      <c r="B132" s="236"/>
+      <c r="A132" s="235"/>
+      <c r="B132" s="235"/>
       <c r="C132" s="2" t="s">
         <v>49</v>
       </c>
@@ -11835,8 +11831,8 @@
       <c r="Q132" s="137"/>
     </row>
     <row r="133" spans="1:17" ht="24">
-      <c r="A133" s="236"/>
-      <c r="B133" s="236"/>
+      <c r="A133" s="235"/>
+      <c r="B133" s="235"/>
       <c r="C133" s="2" t="s">
         <v>50</v>
       </c>
@@ -11868,9 +11864,9 @@
       <c r="Q133" s="137"/>
     </row>
     <row r="134" spans="1:17" ht="16.5">
-      <c r="A134" s="236"/>
-      <c r="B134" s="236"/>
-      <c r="C134" s="250" t="s">
+      <c r="A134" s="235"/>
+      <c r="B134" s="235"/>
+      <c r="C134" s="226" t="s">
         <v>51</v>
       </c>
       <c r="D134" s="146" t="s">
@@ -11905,9 +11901,9 @@
       <c r="Q134" s="137"/>
     </row>
     <row r="135" spans="1:17" ht="16.5">
-      <c r="A135" s="236"/>
-      <c r="B135" s="236"/>
-      <c r="C135" s="255"/>
+      <c r="A135" s="235"/>
+      <c r="B135" s="235"/>
+      <c r="C135" s="246"/>
       <c r="D135" s="146" t="s">
         <v>1429</v>
       </c>
@@ -11938,9 +11934,9 @@
       <c r="Q135" s="137"/>
     </row>
     <row r="136" spans="1:17" ht="16.5">
-      <c r="A136" s="236"/>
-      <c r="B136" s="236"/>
-      <c r="C136" s="251"/>
+      <c r="A136" s="235"/>
+      <c r="B136" s="235"/>
+      <c r="C136" s="227"/>
       <c r="D136" s="146" t="s">
         <v>1429</v>
       </c>
@@ -11971,7 +11967,7 @@
       <c r="Q136" s="137"/>
     </row>
     <row r="137" spans="1:17" ht="64.5" customHeight="1">
-      <c r="A137" s="236"/>
+      <c r="A137" s="235"/>
       <c r="B137" s="181" t="s">
         <v>53</v>
       </c>
@@ -12000,10 +11996,10 @@
       <c r="Q137" s="207"/>
     </row>
     <row r="138" spans="1:17" ht="16.5">
-      <c r="A138" s="235" t="s">
+      <c r="A138" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="235" t="s">
+      <c r="B138" s="234" t="s">
         <v>794</v>
       </c>
       <c r="C138" s="29"/>
@@ -12031,8 +12027,8 @@
       <c r="Q138" s="137"/>
     </row>
     <row r="139" spans="1:17" ht="16.5">
-      <c r="A139" s="236"/>
-      <c r="B139" s="237"/>
+      <c r="A139" s="235"/>
+      <c r="B139" s="236"/>
       <c r="C139" s="29" t="s">
         <v>795</v>
       </c>
@@ -12060,11 +12056,11 @@
       <c r="Q139" s="137"/>
     </row>
     <row r="140" spans="1:17" ht="16.5">
-      <c r="A140" s="236"/>
-      <c r="B140" s="235" t="s">
+      <c r="A140" s="235"/>
+      <c r="B140" s="234" t="s">
         <v>54</v>
       </c>
-      <c r="C140" s="241" t="s">
+      <c r="C140" s="228" t="s">
         <v>55</v>
       </c>
       <c r="D140" s="143" t="s">
@@ -12101,9 +12097,9 @@
       <c r="Q140" s="137"/>
     </row>
     <row r="141" spans="1:17" ht="16.5">
-      <c r="A141" s="236"/>
-      <c r="B141" s="236"/>
-      <c r="C141" s="242"/>
+      <c r="A141" s="235"/>
+      <c r="B141" s="235"/>
+      <c r="C141" s="229"/>
       <c r="D141" s="143" t="s">
         <v>1412</v>
       </c>
@@ -12138,9 +12134,9 @@
       <c r="Q141" s="137"/>
     </row>
     <row r="142" spans="1:17" ht="16.5">
-      <c r="A142" s="236"/>
-      <c r="B142" s="236"/>
-      <c r="C142" s="243"/>
+      <c r="A142" s="235"/>
+      <c r="B142" s="235"/>
+      <c r="C142" s="230"/>
       <c r="D142" s="143" t="s">
         <v>1412</v>
       </c>
@@ -12175,8 +12171,8 @@
       <c r="Q142" s="137"/>
     </row>
     <row r="143" spans="1:17" ht="16.5">
-      <c r="A143" s="236"/>
-      <c r="B143" s="236"/>
+      <c r="A143" s="235"/>
+      <c r="B143" s="235"/>
       <c r="C143" s="2" t="s">
         <v>56</v>
       </c>
@@ -12210,8 +12206,8 @@
       <c r="Q143" s="137"/>
     </row>
     <row r="144" spans="1:17" ht="16.5">
-      <c r="A144" s="236"/>
-      <c r="B144" s="236"/>
+      <c r="A144" s="235"/>
+      <c r="B144" s="235"/>
       <c r="C144" s="2" t="s">
         <v>57</v>
       </c>
@@ -12245,9 +12241,9 @@
       <c r="Q144" s="137"/>
     </row>
     <row r="145" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A145" s="236"/>
-      <c r="B145" s="236"/>
-      <c r="C145" s="250" t="s">
+      <c r="A145" s="235"/>
+      <c r="B145" s="235"/>
+      <c r="C145" s="226" t="s">
         <v>126</v>
       </c>
       <c r="D145" s="143" t="s">
@@ -12284,9 +12280,9 @@
       <c r="Q145" s="137"/>
     </row>
     <row r="146" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A146" s="236"/>
-      <c r="B146" s="236"/>
-      <c r="C146" s="251"/>
+      <c r="A146" s="235"/>
+      <c r="B146" s="235"/>
+      <c r="C146" s="227"/>
       <c r="D146" s="143" t="s">
         <v>1412</v>
       </c>
@@ -12321,7 +12317,7 @@
       <c r="Q146" s="137"/>
     </row>
     <row r="147" spans="1:17" ht="16.5">
-      <c r="A147" s="236"/>
+      <c r="A147" s="235"/>
       <c r="B147" s="1" t="s">
         <v>58</v>
       </c>
@@ -12356,8 +12352,8 @@
       <c r="Q147" s="137"/>
     </row>
     <row r="148" spans="1:17" ht="16.5">
-      <c r="A148" s="236"/>
-      <c r="B148" s="235" t="s">
+      <c r="A148" s="235"/>
+      <c r="B148" s="234" t="s">
         <v>59</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -12393,8 +12389,8 @@
       <c r="Q148" s="137"/>
     </row>
     <row r="149" spans="1:17" ht="16.5">
-      <c r="A149" s="236"/>
-      <c r="B149" s="236"/>
+      <c r="A149" s="235"/>
+      <c r="B149" s="235"/>
       <c r="C149" s="2" t="s">
         <v>60</v>
       </c>
@@ -12428,8 +12424,8 @@
       <c r="Q149" s="137"/>
     </row>
     <row r="150" spans="1:17" ht="16.5">
-      <c r="A150" s="236"/>
-      <c r="B150" s="237"/>
+      <c r="A150" s="235"/>
+      <c r="B150" s="236"/>
       <c r="C150" s="2" t="s">
         <v>61</v>
       </c>
@@ -12463,8 +12459,8 @@
       <c r="Q150" s="137"/>
     </row>
     <row r="151" spans="1:17" ht="16.5">
-      <c r="A151" s="236"/>
-      <c r="B151" s="235" t="s">
+      <c r="A151" s="235"/>
+      <c r="B151" s="234" t="s">
         <v>62</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -12500,9 +12496,9 @@
       <c r="Q151" s="137"/>
     </row>
     <row r="152" spans="1:17" ht="16.5">
-      <c r="A152" s="236"/>
-      <c r="B152" s="236"/>
-      <c r="C152" s="252" t="s">
+      <c r="A152" s="235"/>
+      <c r="B152" s="235"/>
+      <c r="C152" s="253" t="s">
         <v>64</v>
       </c>
       <c r="D152" s="146" t="s">
@@ -12535,9 +12531,9 @@
       <c r="Q152" s="137"/>
     </row>
     <row r="153" spans="1:17" ht="16.5">
-      <c r="A153" s="236"/>
-      <c r="B153" s="236"/>
-      <c r="C153" s="253"/>
+      <c r="A153" s="235"/>
+      <c r="B153" s="235"/>
+      <c r="C153" s="254"/>
       <c r="D153" s="144" t="s">
         <v>1429</v>
       </c>
@@ -12572,9 +12568,9 @@
       <c r="Q153" s="137"/>
     </row>
     <row r="154" spans="1:17" ht="16.5">
-      <c r="A154" s="236"/>
-      <c r="B154" s="237"/>
-      <c r="C154" s="254"/>
+      <c r="A154" s="235"/>
+      <c r="B154" s="236"/>
+      <c r="C154" s="255"/>
       <c r="D154" s="144" t="s">
         <v>1429</v>
       </c>
@@ -12605,8 +12601,8 @@
       <c r="Q154" s="137"/>
     </row>
     <row r="155" spans="1:17" ht="16.5">
-      <c r="A155" s="236"/>
-      <c r="B155" s="235" t="s">
+      <c r="A155" s="235"/>
+      <c r="B155" s="234" t="s">
         <v>66</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -12642,8 +12638,8 @@
       <c r="Q155" s="137"/>
     </row>
     <row r="156" spans="1:17" ht="16.5">
-      <c r="A156" s="236"/>
-      <c r="B156" s="236"/>
+      <c r="A156" s="235"/>
+      <c r="B156" s="235"/>
       <c r="C156" s="2" t="s">
         <v>68</v>
       </c>
@@ -12677,8 +12673,8 @@
       <c r="Q156" s="208"/>
     </row>
     <row r="157" spans="1:17" ht="16.5">
-      <c r="A157" s="236"/>
-      <c r="B157" s="236"/>
+      <c r="A157" s="235"/>
+      <c r="B157" s="235"/>
       <c r="C157" s="2" t="s">
         <v>69</v>
       </c>
@@ -12712,8 +12708,8 @@
       <c r="Q157" s="137"/>
     </row>
     <row r="158" spans="1:17" ht="16.5">
-      <c r="A158" s="236"/>
-      <c r="B158" s="236"/>
+      <c r="A158" s="235"/>
+      <c r="B158" s="235"/>
       <c r="C158" s="2" t="s">
         <v>70</v>
       </c>
@@ -12747,8 +12743,8 @@
       <c r="Q158" s="137"/>
     </row>
     <row r="159" spans="1:17" ht="16.5">
-      <c r="A159" s="236"/>
-      <c r="B159" s="236"/>
+      <c r="A159" s="235"/>
+      <c r="B159" s="235"/>
       <c r="C159" s="2" t="s">
         <v>71</v>
       </c>
@@ -12782,8 +12778,8 @@
       <c r="Q159" s="137"/>
     </row>
     <row r="160" spans="1:17" ht="16.5">
-      <c r="A160" s="236"/>
-      <c r="B160" s="236"/>
+      <c r="A160" s="235"/>
+      <c r="B160" s="235"/>
       <c r="C160" s="2" t="s">
         <v>72</v>
       </c>
@@ -12817,8 +12813,8 @@
       <c r="Q160" s="137"/>
     </row>
     <row r="161" spans="1:17" ht="16.5">
-      <c r="A161" s="236"/>
-      <c r="B161" s="236"/>
+      <c r="A161" s="235"/>
+      <c r="B161" s="235"/>
       <c r="C161" s="2" t="s">
         <v>73</v>
       </c>
@@ -12852,8 +12848,8 @@
       <c r="Q161" s="137"/>
     </row>
     <row r="162" spans="1:17" ht="16.5">
-      <c r="A162" s="236"/>
-      <c r="B162" s="236"/>
+      <c r="A162" s="235"/>
+      <c r="B162" s="235"/>
       <c r="C162" s="2" t="s">
         <v>74</v>
       </c>
@@ -12887,8 +12883,8 @@
       <c r="Q162" s="137"/>
     </row>
     <row r="163" spans="1:17" ht="16.5">
-      <c r="A163" s="236"/>
-      <c r="B163" s="236"/>
+      <c r="A163" s="235"/>
+      <c r="B163" s="235"/>
       <c r="C163" s="2" t="s">
         <v>75</v>
       </c>
@@ -12922,8 +12918,8 @@
       <c r="Q163" s="137"/>
     </row>
     <row r="164" spans="1:17" ht="36">
-      <c r="A164" s="236"/>
-      <c r="B164" s="236"/>
+      <c r="A164" s="235"/>
+      <c r="B164" s="235"/>
       <c r="C164" s="2" t="s">
         <v>76</v>
       </c>
@@ -12959,8 +12955,8 @@
       <c r="Q164" s="137"/>
     </row>
     <row r="165" spans="1:17" ht="16.5">
-      <c r="A165" s="236"/>
-      <c r="B165" s="236"/>
+      <c r="A165" s="235"/>
+      <c r="B165" s="235"/>
       <c r="C165" s="137"/>
       <c r="D165" s="166" t="s">
         <v>1412</v>
@@ -12996,8 +12992,8 @@
       <c r="Q165" s="137"/>
     </row>
     <row r="166" spans="1:17" ht="16.5">
-      <c r="A166" s="236"/>
-      <c r="B166" s="236"/>
+      <c r="A166" s="235"/>
+      <c r="B166" s="235"/>
       <c r="C166" s="137"/>
       <c r="D166" s="166" t="s">
         <v>1412</v>
@@ -13033,8 +13029,8 @@
       <c r="Q166" s="137"/>
     </row>
     <row r="167" spans="1:17" ht="16.5">
-      <c r="A167" s="236"/>
-      <c r="B167" s="236"/>
+      <c r="A167" s="235"/>
+      <c r="B167" s="235"/>
       <c r="C167" s="137"/>
       <c r="D167" s="166" t="s">
         <v>1412</v>
@@ -13070,8 +13066,8 @@
       <c r="Q167" s="137"/>
     </row>
     <row r="168" spans="1:17" ht="16.5">
-      <c r="A168" s="236"/>
-      <c r="B168" s="236"/>
+      <c r="A168" s="235"/>
+      <c r="B168" s="235"/>
       <c r="C168" s="137"/>
       <c r="D168" s="166" t="s">
         <v>1412</v>
@@ -13107,8 +13103,8 @@
       <c r="Q168" s="137"/>
     </row>
     <row r="169" spans="1:17" ht="16.5">
-      <c r="A169" s="236"/>
-      <c r="B169" s="236"/>
+      <c r="A169" s="235"/>
+      <c r="B169" s="235"/>
       <c r="C169" s="137"/>
       <c r="D169" s="166" t="s">
         <v>1412</v>
@@ -13144,8 +13140,8 @@
       <c r="Q169" s="137"/>
     </row>
     <row r="170" spans="1:17" ht="16.5">
-      <c r="A170" s="236"/>
-      <c r="B170" s="236"/>
+      <c r="A170" s="235"/>
+      <c r="B170" s="235"/>
       <c r="C170" s="137"/>
       <c r="D170" s="166" t="s">
         <v>1412</v>
@@ -13181,8 +13177,8 @@
       <c r="Q170" s="137"/>
     </row>
     <row r="171" spans="1:17" ht="16.5">
-      <c r="A171" s="236"/>
-      <c r="B171" s="236"/>
+      <c r="A171" s="235"/>
+      <c r="B171" s="235"/>
       <c r="C171" s="161" t="s">
         <v>1297</v>
       </c>
@@ -13220,8 +13216,8 @@
       <c r="Q171" s="137"/>
     </row>
     <row r="172" spans="1:17" ht="16.5">
-      <c r="A172" s="236"/>
-      <c r="B172" s="236"/>
+      <c r="A172" s="235"/>
+      <c r="B172" s="235"/>
       <c r="C172" s="137"/>
       <c r="D172" s="166" t="s">
         <v>1412</v>
@@ -13257,8 +13253,8 @@
       <c r="Q172" s="137"/>
     </row>
     <row r="173" spans="1:17" ht="16.5">
-      <c r="A173" s="236"/>
-      <c r="B173" s="236"/>
+      <c r="A173" s="235"/>
+      <c r="B173" s="235"/>
       <c r="C173" s="137"/>
       <c r="D173" s="166" t="s">
         <v>1412</v>
@@ -13292,8 +13288,8 @@
       <c r="Q173" s="137"/>
     </row>
     <row r="174" spans="1:17" ht="16.5">
-      <c r="A174" s="236"/>
-      <c r="B174" s="236"/>
+      <c r="A174" s="235"/>
+      <c r="B174" s="235"/>
       <c r="C174" s="137"/>
       <c r="D174" s="166" t="s">
         <v>1412</v>
@@ -13329,8 +13325,8 @@
       <c r="Q174" s="137"/>
     </row>
     <row r="175" spans="1:17" ht="16.5">
-      <c r="A175" s="236"/>
-      <c r="B175" s="236"/>
+      <c r="A175" s="235"/>
+      <c r="B175" s="235"/>
       <c r="C175" s="137"/>
       <c r="D175" s="166" t="s">
         <v>1412</v>
@@ -13366,8 +13362,8 @@
       <c r="Q175" s="137"/>
     </row>
     <row r="176" spans="1:17" ht="16.5">
-      <c r="A176" s="236"/>
-      <c r="B176" s="236"/>
+      <c r="A176" s="235"/>
+      <c r="B176" s="235"/>
       <c r="C176" s="137"/>
       <c r="D176" s="166" t="s">
         <v>1412</v>
@@ -13403,8 +13399,8 @@
       <c r="Q176" s="137"/>
     </row>
     <row r="177" spans="1:17" ht="16.5">
-      <c r="A177" s="236"/>
-      <c r="B177" s="236"/>
+      <c r="A177" s="235"/>
+      <c r="B177" s="235"/>
       <c r="C177" s="137"/>
       <c r="D177" s="166" t="s">
         <v>1412</v>
@@ -13440,8 +13436,8 @@
       <c r="Q177" s="137"/>
     </row>
     <row r="178" spans="1:17" ht="16.5">
-      <c r="A178" s="236"/>
-      <c r="B178" s="236"/>
+      <c r="A178" s="235"/>
+      <c r="B178" s="235"/>
       <c r="C178" s="137"/>
       <c r="D178" s="166" t="s">
         <v>1412</v>
@@ -13477,8 +13473,8 @@
       <c r="Q178" s="137"/>
     </row>
     <row r="179" spans="1:17" ht="16.5">
-      <c r="A179" s="236"/>
-      <c r="B179" s="236"/>
+      <c r="A179" s="235"/>
+      <c r="B179" s="235"/>
       <c r="C179" s="137"/>
       <c r="D179" s="166" t="s">
         <v>1412</v>
@@ -13514,8 +13510,8 @@
       <c r="Q179" s="137"/>
     </row>
     <row r="180" spans="1:17" ht="16.5">
-      <c r="A180" s="236"/>
-      <c r="B180" s="236"/>
+      <c r="A180" s="235"/>
+      <c r="B180" s="235"/>
       <c r="C180" s="137"/>
       <c r="D180" s="166" t="s">
         <v>1412</v>
@@ -13551,8 +13547,8 @@
       <c r="Q180" s="137"/>
     </row>
     <row r="181" spans="1:17" ht="16.5">
-      <c r="A181" s="236"/>
-      <c r="B181" s="236"/>
+      <c r="A181" s="235"/>
+      <c r="B181" s="235"/>
       <c r="C181" s="137" t="s">
         <v>77</v>
       </c>
@@ -13590,8 +13586,8 @@
       <c r="Q181" s="137"/>
     </row>
     <row r="182" spans="1:17" ht="16.5">
-      <c r="A182" s="236"/>
-      <c r="B182" s="236"/>
+      <c r="A182" s="235"/>
+      <c r="B182" s="235"/>
       <c r="C182" s="137"/>
       <c r="D182" s="166" t="s">
         <v>1412</v>
@@ -13627,8 +13623,8 @@
       <c r="Q182" s="137"/>
     </row>
     <row r="183" spans="1:17" ht="16.5">
-      <c r="A183" s="236"/>
-      <c r="B183" s="236"/>
+      <c r="A183" s="235"/>
+      <c r="B183" s="235"/>
       <c r="C183" s="137"/>
       <c r="D183" s="166" t="s">
         <v>1412</v>
@@ -13664,8 +13660,8 @@
       <c r="Q183" s="137"/>
     </row>
     <row r="184" spans="1:17" ht="16.5">
-      <c r="A184" s="236"/>
-      <c r="B184" s="236"/>
+      <c r="A184" s="235"/>
+      <c r="B184" s="235"/>
       <c r="C184" s="137"/>
       <c r="D184" s="166" t="s">
         <v>1412</v>
@@ -13701,8 +13697,8 @@
       <c r="Q184" s="137"/>
     </row>
     <row r="185" spans="1:17" ht="16.5">
-      <c r="A185" s="236"/>
-      <c r="B185" s="236"/>
+      <c r="A185" s="235"/>
+      <c r="B185" s="235"/>
       <c r="C185" s="137"/>
       <c r="D185" s="166" t="s">
         <v>1412</v>
@@ -13738,8 +13734,8 @@
       <c r="Q185" s="137"/>
     </row>
     <row r="186" spans="1:17" ht="16.5">
-      <c r="A186" s="236"/>
-      <c r="B186" s="236"/>
+      <c r="A186" s="235"/>
+      <c r="B186" s="235"/>
       <c r="C186" s="137"/>
       <c r="D186" s="166" t="s">
         <v>1412</v>
@@ -13775,8 +13771,8 @@
       <c r="Q186" s="137"/>
     </row>
     <row r="187" spans="1:17" ht="16.5">
-      <c r="A187" s="236"/>
-      <c r="B187" s="236"/>
+      <c r="A187" s="235"/>
+      <c r="B187" s="235"/>
       <c r="C187" s="137"/>
       <c r="D187" s="166" t="s">
         <v>1412</v>
@@ -13812,8 +13808,8 @@
       <c r="Q187" s="137"/>
     </row>
     <row r="188" spans="1:17" ht="16.5">
-      <c r="A188" s="236"/>
-      <c r="B188" s="236"/>
+      <c r="A188" s="235"/>
+      <c r="B188" s="235"/>
       <c r="C188" s="137"/>
       <c r="D188" s="166" t="s">
         <v>1412</v>
@@ -13849,8 +13845,8 @@
       <c r="Q188" s="137"/>
     </row>
     <row r="189" spans="1:17" ht="16.5">
-      <c r="A189" s="236"/>
-      <c r="B189" s="236"/>
+      <c r="A189" s="235"/>
+      <c r="B189" s="235"/>
       <c r="C189" s="137"/>
       <c r="D189" s="166" t="s">
         <v>1412</v>
@@ -13886,8 +13882,8 @@
       <c r="Q189" s="137"/>
     </row>
     <row r="190" spans="1:17" ht="16.5">
-      <c r="A190" s="236"/>
-      <c r="B190" s="236"/>
+      <c r="A190" s="235"/>
+      <c r="B190" s="235"/>
       <c r="C190" s="137"/>
       <c r="D190" s="166" t="s">
         <v>1412</v>
@@ -13923,8 +13919,8 @@
       <c r="Q190" s="137"/>
     </row>
     <row r="191" spans="1:17" ht="16.5">
-      <c r="A191" s="236"/>
-      <c r="B191" s="236"/>
+      <c r="A191" s="235"/>
+      <c r="B191" s="235"/>
       <c r="C191" s="137"/>
       <c r="D191" s="166" t="s">
         <v>1412</v>
@@ -13960,8 +13956,8 @@
       <c r="Q191" s="137"/>
     </row>
     <row r="192" spans="1:17" ht="16.5">
-      <c r="A192" s="236"/>
-      <c r="B192" s="236"/>
+      <c r="A192" s="235"/>
+      <c r="B192" s="235"/>
       <c r="C192" s="137"/>
       <c r="D192" s="166" t="s">
         <v>1412</v>
@@ -13997,8 +13993,8 @@
       <c r="Q192" s="137"/>
     </row>
     <row r="193" spans="1:17" ht="16.5">
-      <c r="A193" s="236"/>
-      <c r="B193" s="236"/>
+      <c r="A193" s="235"/>
+      <c r="B193" s="235"/>
       <c r="C193" s="137"/>
       <c r="D193" s="166" t="s">
         <v>1412</v>
@@ -14034,8 +14030,8 @@
       <c r="Q193" s="137"/>
     </row>
     <row r="194" spans="1:17" ht="16.5">
-      <c r="A194" s="236"/>
-      <c r="B194" s="236"/>
+      <c r="A194" s="235"/>
+      <c r="B194" s="235"/>
       <c r="C194" s="137"/>
       <c r="D194" s="166" t="s">
         <v>1412</v>
@@ -14071,8 +14067,8 @@
       <c r="Q194" s="137"/>
     </row>
     <row r="195" spans="1:17" ht="16.5">
-      <c r="A195" s="236"/>
-      <c r="B195" s="236"/>
+      <c r="A195" s="235"/>
+      <c r="B195" s="235"/>
       <c r="C195" s="137"/>
       <c r="D195" s="166" t="s">
         <v>1412</v>
@@ -14108,8 +14104,8 @@
       <c r="Q195" s="137"/>
     </row>
     <row r="196" spans="1:17" ht="16.5">
-      <c r="A196" s="236"/>
-      <c r="B196" s="236"/>
+      <c r="A196" s="235"/>
+      <c r="B196" s="235"/>
       <c r="C196" s="137"/>
       <c r="D196" s="166" t="s">
         <v>1412</v>
@@ -14145,8 +14141,8 @@
       <c r="Q196" s="137"/>
     </row>
     <row r="197" spans="1:17" ht="16.5">
-      <c r="A197" s="236"/>
-      <c r="B197" s="236"/>
+      <c r="A197" s="235"/>
+      <c r="B197" s="235"/>
       <c r="C197" s="137"/>
       <c r="D197" s="166" t="s">
         <v>1412</v>
@@ -14182,8 +14178,8 @@
       <c r="Q197" s="137"/>
     </row>
     <row r="198" spans="1:17" ht="16.5">
-      <c r="A198" s="236"/>
-      <c r="B198" s="236"/>
+      <c r="A198" s="235"/>
+      <c r="B198" s="235"/>
       <c r="C198" s="137"/>
       <c r="D198" s="166" t="s">
         <v>1412</v>
@@ -14219,8 +14215,8 @@
       <c r="Q198" s="137"/>
     </row>
     <row r="199" spans="1:17" ht="16.5">
-      <c r="A199" s="236"/>
-      <c r="B199" s="236"/>
+      <c r="A199" s="235"/>
+      <c r="B199" s="235"/>
       <c r="C199" s="137"/>
       <c r="D199" s="166" t="s">
         <v>1412</v>
@@ -14256,8 +14252,8 @@
       <c r="Q199" s="137"/>
     </row>
     <row r="200" spans="1:17" ht="16.5">
-      <c r="A200" s="236"/>
-      <c r="B200" s="236"/>
+      <c r="A200" s="235"/>
+      <c r="B200" s="235"/>
       <c r="C200" s="137"/>
       <c r="D200" s="166" t="s">
         <v>1412</v>
@@ -14293,8 +14289,8 @@
       <c r="Q200" s="137"/>
     </row>
     <row r="201" spans="1:17" ht="16.5">
-      <c r="A201" s="236"/>
-      <c r="B201" s="236"/>
+      <c r="A201" s="235"/>
+      <c r="B201" s="235"/>
       <c r="C201" s="137"/>
       <c r="D201" s="166" t="s">
         <v>1412</v>
@@ -14330,8 +14326,8 @@
       <c r="Q201" s="137"/>
     </row>
     <row r="202" spans="1:17" ht="16.5">
-      <c r="A202" s="236"/>
-      <c r="B202" s="236"/>
+      <c r="A202" s="235"/>
+      <c r="B202" s="235"/>
       <c r="C202" s="137"/>
       <c r="D202" s="166" t="s">
         <v>1412</v>
@@ -14367,8 +14363,8 @@
       <c r="Q202" s="137"/>
     </row>
     <row r="203" spans="1:17" ht="16.5">
-      <c r="A203" s="236"/>
-      <c r="B203" s="236"/>
+      <c r="A203" s="235"/>
+      <c r="B203" s="235"/>
       <c r="C203" s="137"/>
       <c r="D203" s="166" t="s">
         <v>1412</v>
@@ -14404,8 +14400,8 @@
       <c r="Q203" s="137"/>
     </row>
     <row r="204" spans="1:17" ht="16.5">
-      <c r="A204" s="236"/>
-      <c r="B204" s="236"/>
+      <c r="A204" s="235"/>
+      <c r="B204" s="235"/>
       <c r="C204" s="137"/>
       <c r="D204" s="166" t="s">
         <v>1412</v>
@@ -14441,8 +14437,8 @@
       <c r="Q204" s="137"/>
     </row>
     <row r="205" spans="1:17" ht="16.5">
-      <c r="A205" s="236"/>
-      <c r="B205" s="236"/>
+      <c r="A205" s="235"/>
+      <c r="B205" s="235"/>
       <c r="C205" s="137"/>
       <c r="D205" s="166" t="s">
         <v>1412</v>
@@ -14478,8 +14474,8 @@
       <c r="Q205" s="137"/>
     </row>
     <row r="206" spans="1:17" ht="16.5">
-      <c r="A206" s="236"/>
-      <c r="B206" s="236"/>
+      <c r="A206" s="235"/>
+      <c r="B206" s="235"/>
       <c r="C206" s="137"/>
       <c r="D206" s="166" t="s">
         <v>1412</v>
@@ -14515,8 +14511,8 @@
       <c r="Q206" s="137"/>
     </row>
     <row r="207" spans="1:17" ht="16.5">
-      <c r="A207" s="236"/>
-      <c r="B207" s="236"/>
+      <c r="A207" s="235"/>
+      <c r="B207" s="235"/>
       <c r="C207" s="137"/>
       <c r="D207" s="166" t="s">
         <v>1412</v>
@@ -14554,8 +14550,8 @@
       <c r="Q207" s="137"/>
     </row>
     <row r="208" spans="1:17" ht="16.5">
-      <c r="A208" s="236"/>
-      <c r="B208" s="235" t="s">
+      <c r="A208" s="235"/>
+      <c r="B208" s="234" t="s">
         <v>78</v>
       </c>
       <c r="C208" s="2" t="s">
@@ -14591,8 +14587,8 @@
       <c r="Q208" s="137"/>
     </row>
     <row r="209" spans="1:17" ht="16.5">
-      <c r="A209" s="236"/>
-      <c r="B209" s="236"/>
+      <c r="A209" s="235"/>
+      <c r="B209" s="235"/>
       <c r="C209" s="2" t="s">
         <v>34</v>
       </c>
@@ -14626,8 +14622,8 @@
       <c r="Q209" s="137"/>
     </row>
     <row r="210" spans="1:17" ht="16.5">
-      <c r="A210" s="236"/>
-      <c r="B210" s="236"/>
+      <c r="A210" s="235"/>
+      <c r="B210" s="235"/>
       <c r="C210" s="2" t="s">
         <v>79</v>
       </c>
@@ -14661,8 +14657,8 @@
       <c r="Q210" s="137"/>
     </row>
     <row r="211" spans="1:17" ht="16.5">
-      <c r="A211" s="236"/>
-      <c r="B211" s="236"/>
+      <c r="A211" s="235"/>
+      <c r="B211" s="235"/>
       <c r="C211" s="2" t="s">
         <v>1466</v>
       </c>
@@ -14696,8 +14692,8 @@
       <c r="Q211" s="137"/>
     </row>
     <row r="212" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A212" s="236"/>
-      <c r="B212" s="236"/>
+      <c r="A212" s="235"/>
+      <c r="B212" s="235"/>
       <c r="C212" s="2" t="s">
         <v>1295</v>
       </c>
@@ -14731,8 +14727,8 @@
       <c r="Q212" s="209"/>
     </row>
     <row r="213" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A213" s="236"/>
-      <c r="B213" s="235" t="s">
+      <c r="A213" s="235"/>
+      <c r="B213" s="234" t="s">
         <v>80</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -14768,8 +14764,8 @@
       <c r="Q213" s="137"/>
     </row>
     <row r="214" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A214" s="236"/>
-      <c r="B214" s="236"/>
+      <c r="A214" s="235"/>
+      <c r="B214" s="235"/>
       <c r="C214" s="2" t="s">
         <v>82</v>
       </c>
@@ -14803,8 +14799,8 @@
       <c r="Q214" s="137"/>
     </row>
     <row r="215" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A215" s="236"/>
-      <c r="B215" s="236"/>
+      <c r="A215" s="235"/>
+      <c r="B215" s="235"/>
       <c r="C215" s="2" t="s">
         <v>83</v>
       </c>
@@ -14838,8 +14834,8 @@
       <c r="Q215" s="137"/>
     </row>
     <row r="216" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A216" s="236"/>
-      <c r="B216" s="236"/>
+      <c r="A216" s="235"/>
+      <c r="B216" s="235"/>
       <c r="C216" s="2" t="s">
         <v>84</v>
       </c>
@@ -14873,8 +14869,8 @@
       <c r="Q216" s="137"/>
     </row>
     <row r="217" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A217" s="236"/>
-      <c r="B217" s="236"/>
+      <c r="A217" s="235"/>
+      <c r="B217" s="235"/>
       <c r="C217" s="2" t="s">
         <v>85</v>
       </c>
@@ -14908,8 +14904,8 @@
       <c r="Q217" s="137"/>
     </row>
     <row r="218" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A218" s="236"/>
-      <c r="B218" s="237"/>
+      <c r="A218" s="235"/>
+      <c r="B218" s="236"/>
       <c r="C218" s="2" t="s">
         <v>86</v>
       </c>
@@ -14943,8 +14939,8 @@
       <c r="Q218" s="137"/>
     </row>
     <row r="219" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A219" s="236"/>
-      <c r="B219" s="235" t="s">
+      <c r="A219" s="235"/>
+      <c r="B219" s="234" t="s">
         <v>87</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -14980,8 +14976,8 @@
       <c r="Q219" s="137"/>
     </row>
     <row r="220" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A220" s="236"/>
-      <c r="B220" s="236"/>
+      <c r="A220" s="235"/>
+      <c r="B220" s="235"/>
       <c r="C220" s="2" t="s">
         <v>323</v>
       </c>
@@ -15015,8 +15011,8 @@
       <c r="Q220" s="137"/>
     </row>
     <row r="221" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A221" s="236"/>
-      <c r="B221" s="236"/>
+      <c r="A221" s="235"/>
+      <c r="B221" s="235"/>
       <c r="C221" s="2" t="s">
         <v>326</v>
       </c>
@@ -15050,8 +15046,8 @@
       <c r="Q221" s="137"/>
     </row>
     <row r="222" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A222" s="236"/>
-      <c r="B222" s="236"/>
+      <c r="A222" s="235"/>
+      <c r="B222" s="235"/>
       <c r="C222" s="2" t="s">
         <v>330</v>
       </c>
@@ -15085,8 +15081,8 @@
       <c r="Q222" s="137"/>
     </row>
     <row r="223" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A223" s="236"/>
-      <c r="B223" s="236"/>
+      <c r="A223" s="235"/>
+      <c r="B223" s="235"/>
       <c r="C223" s="2" t="s">
         <v>333</v>
       </c>
@@ -15120,8 +15116,8 @@
       <c r="Q223" s="137"/>
     </row>
     <row r="224" spans="1:17" ht="16.5">
-      <c r="A224" s="236"/>
-      <c r="B224" s="236"/>
+      <c r="A224" s="235"/>
+      <c r="B224" s="235"/>
       <c r="C224" s="2" t="s">
         <v>336</v>
       </c>
@@ -15155,8 +15151,8 @@
       <c r="Q224" s="137"/>
     </row>
     <row r="225" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A225" s="236"/>
-      <c r="B225" s="236"/>
+      <c r="A225" s="235"/>
+      <c r="B225" s="235"/>
       <c r="C225" s="2" t="s">
         <v>338</v>
       </c>
@@ -15190,8 +15186,8 @@
       <c r="Q225" s="137"/>
     </row>
     <row r="226" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A226" s="236"/>
-      <c r="B226" s="237"/>
+      <c r="A226" s="235"/>
+      <c r="B226" s="236"/>
       <c r="C226" s="2" t="s">
         <v>339</v>
       </c>
@@ -15225,7 +15221,7 @@
       <c r="Q226" s="137"/>
     </row>
     <row r="227" spans="1:17" ht="16.5">
-      <c r="A227" s="236"/>
+      <c r="A227" s="235"/>
       <c r="B227" s="155" t="s">
         <v>1300</v>
       </c>
@@ -15266,7 +15262,7 @@
       <c r="Q227" s="210"/>
     </row>
     <row r="228" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A228" s="236"/>
+      <c r="A228" s="235"/>
       <c r="B228" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15307,7 +15303,7 @@
       <c r="Q228" s="211"/>
     </row>
     <row r="229" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A229" s="236"/>
+      <c r="A229" s="235"/>
       <c r="B229" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15348,7 +15344,7 @@
       <c r="Q229" s="212"/>
     </row>
     <row r="230" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A230" s="236"/>
+      <c r="A230" s="235"/>
       <c r="B230" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15391,7 +15387,7 @@
       <c r="Q230" s="213"/>
     </row>
     <row r="231" spans="1:17" ht="16.5">
-      <c r="A231" s="236"/>
+      <c r="A231" s="235"/>
       <c r="B231" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15434,7 +15430,7 @@
       <c r="Q231" s="213"/>
     </row>
     <row r="232" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A232" s="236"/>
+      <c r="A232" s="235"/>
       <c r="B232" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15477,7 +15473,7 @@
       <c r="Q232" s="213"/>
     </row>
     <row r="233" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A233" s="236"/>
+      <c r="A233" s="235"/>
       <c r="B233" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15520,7 +15516,7 @@
       <c r="Q233" s="213"/>
     </row>
     <row r="234" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A234" s="236"/>
+      <c r="A234" s="235"/>
       <c r="B234" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15563,7 +15559,7 @@
       <c r="Q234" s="213"/>
     </row>
     <row r="235" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A235" s="236"/>
+      <c r="A235" s="235"/>
       <c r="B235" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15606,7 +15602,7 @@
       <c r="Q235" s="213"/>
     </row>
     <row r="236" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A236" s="236"/>
+      <c r="A236" s="235"/>
       <c r="B236" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15647,7 +15643,7 @@
       <c r="Q236" s="209"/>
     </row>
     <row r="237" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A237" s="236"/>
+      <c r="A237" s="235"/>
       <c r="B237" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15690,7 +15686,7 @@
       <c r="Q237" s="214"/>
     </row>
     <row r="238" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A238" s="236"/>
+      <c r="A238" s="235"/>
       <c r="B238" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15731,7 +15727,7 @@
       <c r="Q238" s="214"/>
     </row>
     <row r="239" spans="1:17" ht="16.5">
-      <c r="A239" s="236"/>
+      <c r="A239" s="235"/>
       <c r="B239" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15774,7 +15770,7 @@
       <c r="Q239" s="165"/>
     </row>
     <row r="240" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A240" s="236"/>
+      <c r="A240" s="235"/>
       <c r="B240" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15817,7 +15813,7 @@
       <c r="Q240" s="165"/>
     </row>
     <row r="241" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A241" s="236"/>
+      <c r="A241" s="235"/>
       <c r="B241" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15858,7 +15854,7 @@
       <c r="Q241" s="209"/>
     </row>
     <row r="242" spans="1:17" ht="16.5">
-      <c r="A242" s="236"/>
+      <c r="A242" s="235"/>
       <c r="B242" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15899,7 +15895,7 @@
       <c r="Q242" s="165"/>
     </row>
     <row r="243" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A243" s="236"/>
+      <c r="A243" s="235"/>
       <c r="B243" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15940,7 +15936,7 @@
       <c r="Q243" s="165"/>
     </row>
     <row r="244" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A244" s="236"/>
+      <c r="A244" s="235"/>
       <c r="B244" s="158" t="s">
         <v>1300</v>
       </c>
@@ -15981,7 +15977,7 @@
       <c r="Q244" s="165"/>
     </row>
     <row r="245" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A245" s="236"/>
+      <c r="A245" s="235"/>
       <c r="B245" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16022,7 +16018,7 @@
       <c r="Q245" s="215"/>
     </row>
     <row r="246" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A246" s="236"/>
+      <c r="A246" s="235"/>
       <c r="B246" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16063,7 +16059,7 @@
       <c r="Q246" s="209"/>
     </row>
     <row r="247" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A247" s="236"/>
+      <c r="A247" s="235"/>
       <c r="B247" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16104,7 +16100,7 @@
       <c r="Q247" s="165"/>
     </row>
     <row r="248" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A248" s="236"/>
+      <c r="A248" s="235"/>
       <c r="B248" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16147,7 +16143,7 @@
       <c r="Q248" s="165"/>
     </row>
     <row r="249" spans="1:17" ht="16.5">
-      <c r="A249" s="236"/>
+      <c r="A249" s="235"/>
       <c r="B249" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16190,7 +16186,7 @@
       <c r="Q249" s="165"/>
     </row>
     <row r="250" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A250" s="236"/>
+      <c r="A250" s="235"/>
       <c r="B250" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16233,7 +16229,7 @@
       <c r="Q250" s="165"/>
     </row>
     <row r="251" spans="1:17" ht="16.5">
-      <c r="A251" s="236"/>
+      <c r="A251" s="235"/>
       <c r="B251" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16276,7 +16272,7 @@
       <c r="Q251" s="165"/>
     </row>
     <row r="252" spans="1:17" ht="16.5">
-      <c r="A252" s="236"/>
+      <c r="A252" s="235"/>
       <c r="B252" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16319,7 +16315,7 @@
       <c r="Q252" s="165"/>
     </row>
     <row r="253" spans="1:17" ht="16.5">
-      <c r="A253" s="236"/>
+      <c r="A253" s="235"/>
       <c r="B253" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16362,7 +16358,7 @@
       <c r="Q253" s="165"/>
     </row>
     <row r="254" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A254" s="236"/>
+      <c r="A254" s="235"/>
       <c r="B254" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16403,7 +16399,7 @@
       <c r="Q254" s="165"/>
     </row>
     <row r="255" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A255" s="236"/>
+      <c r="A255" s="235"/>
       <c r="B255" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16444,7 +16440,7 @@
       <c r="Q255" s="165"/>
     </row>
     <row r="256" spans="1:17" ht="16.5">
-      <c r="A256" s="236"/>
+      <c r="A256" s="235"/>
       <c r="B256" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16485,7 +16481,7 @@
       <c r="Q256" s="165"/>
     </row>
     <row r="257" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A257" s="236"/>
+      <c r="A257" s="235"/>
       <c r="B257" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16526,7 +16522,7 @@
       <c r="Q257" s="165"/>
     </row>
     <row r="258" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A258" s="236"/>
+      <c r="A258" s="235"/>
       <c r="B258" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16567,7 +16563,7 @@
       <c r="Q258" s="165"/>
     </row>
     <row r="259" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A259" s="236"/>
+      <c r="A259" s="235"/>
       <c r="B259" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16608,7 +16604,7 @@
       <c r="Q259" s="165"/>
     </row>
     <row r="260" spans="1:17" ht="46.5" customHeight="1">
-      <c r="A260" s="236"/>
+      <c r="A260" s="235"/>
       <c r="B260" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16647,7 +16643,7 @@
       <c r="Q260" s="165"/>
     </row>
     <row r="261" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A261" s="236"/>
+      <c r="A261" s="235"/>
       <c r="B261" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16688,7 +16684,7 @@
       <c r="Q261" s="165"/>
     </row>
     <row r="262" spans="1:17" ht="16.5">
-      <c r="A262" s="236"/>
+      <c r="A262" s="235"/>
       <c r="B262" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16731,7 +16727,7 @@
       <c r="Q262" s="165"/>
     </row>
     <row r="263" spans="1:17" ht="16.5">
-      <c r="A263" s="236"/>
+      <c r="A263" s="235"/>
       <c r="B263" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16772,7 +16768,7 @@
       <c r="Q263" s="165"/>
     </row>
     <row r="264" spans="1:17" ht="16.5">
-      <c r="A264" s="236"/>
+      <c r="A264" s="235"/>
       <c r="B264" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16813,7 +16809,7 @@
       <c r="Q264" s="165"/>
     </row>
     <row r="265" spans="1:17" ht="16.5">
-      <c r="A265" s="236"/>
+      <c r="A265" s="235"/>
       <c r="B265" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16854,7 +16850,7 @@
       <c r="Q265" s="165"/>
     </row>
     <row r="266" spans="1:17" ht="16.5">
-      <c r="A266" s="236"/>
+      <c r="A266" s="235"/>
       <c r="B266" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16895,7 +16891,7 @@
       <c r="Q266" s="165"/>
     </row>
     <row r="267" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A267" s="236"/>
+      <c r="A267" s="235"/>
       <c r="B267" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16936,7 +16932,7 @@
       <c r="Q267" s="165"/>
     </row>
     <row r="268" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A268" s="236"/>
+      <c r="A268" s="235"/>
       <c r="B268" s="158" t="s">
         <v>1300</v>
       </c>
@@ -16979,7 +16975,7 @@
       <c r="Q268" s="216"/>
     </row>
     <row r="269" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A269" s="236"/>
+      <c r="A269" s="235"/>
       <c r="B269" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17022,7 +17018,7 @@
       <c r="Q269" s="165"/>
     </row>
     <row r="270" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A270" s="236"/>
+      <c r="A270" s="235"/>
       <c r="B270" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17065,7 +17061,7 @@
       <c r="Q270" s="165"/>
     </row>
     <row r="271" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A271" s="236"/>
+      <c r="A271" s="235"/>
       <c r="B271" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17108,7 +17104,7 @@
       <c r="Q271" s="217"/>
     </row>
     <row r="272" spans="1:17" ht="16.5">
-      <c r="A272" s="236"/>
+      <c r="A272" s="235"/>
       <c r="B272" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17149,7 +17145,7 @@
       <c r="Q272" s="165"/>
     </row>
     <row r="273" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A273" s="236"/>
+      <c r="A273" s="235"/>
       <c r="B273" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17190,7 +17186,7 @@
       <c r="Q273" s="165"/>
     </row>
     <row r="274" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A274" s="236"/>
+      <c r="A274" s="235"/>
       <c r="B274" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17233,7 +17229,7 @@
       <c r="Q274" s="165"/>
     </row>
     <row r="275" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A275" s="236"/>
+      <c r="A275" s="235"/>
       <c r="B275" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17276,7 +17272,7 @@
       <c r="Q275" s="165"/>
     </row>
     <row r="276" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A276" s="236"/>
+      <c r="A276" s="235"/>
       <c r="B276" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17317,7 +17313,7 @@
       <c r="Q276" s="209"/>
     </row>
     <row r="277" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A277" s="236"/>
+      <c r="A277" s="235"/>
       <c r="B277" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17358,7 +17354,7 @@
       <c r="Q277" s="209"/>
     </row>
     <row r="278" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A278" s="236"/>
+      <c r="A278" s="235"/>
       <c r="B278" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17368,7 +17364,7 @@
       <c r="D278" s="166" t="s">
         <v>1412</v>
       </c>
-      <c r="E278" s="244" t="s">
+      <c r="E278" s="247" t="s">
         <v>1337</v>
       </c>
       <c r="F278" s="149" t="s">
@@ -17401,7 +17397,7 @@
       <c r="Q278" s="215"/>
     </row>
     <row r="279" spans="1:17" ht="16.5">
-      <c r="A279" s="236"/>
+      <c r="A279" s="235"/>
       <c r="B279" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17411,7 +17407,7 @@
       <c r="D279" s="166" t="s">
         <v>1412</v>
       </c>
-      <c r="E279" s="245"/>
+      <c r="E279" s="248"/>
       <c r="F279" s="150" t="s">
         <v>1339</v>
       </c>
@@ -17442,7 +17438,7 @@
       <c r="Q279" s="165"/>
     </row>
     <row r="280" spans="1:17" ht="16.5">
-      <c r="A280" s="236"/>
+      <c r="A280" s="235"/>
       <c r="B280" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17452,7 +17448,7 @@
       <c r="D280" s="166" t="s">
         <v>1412</v>
       </c>
-      <c r="E280" s="245"/>
+      <c r="E280" s="248"/>
       <c r="F280" s="164" t="s">
         <v>1384</v>
       </c>
@@ -17483,7 +17479,7 @@
       <c r="Q280" s="165"/>
     </row>
     <row r="281" spans="1:17" ht="16.5">
-      <c r="A281" s="236"/>
+      <c r="A281" s="235"/>
       <c r="B281" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17493,7 +17489,7 @@
       <c r="D281" s="166" t="s">
         <v>1412</v>
       </c>
-      <c r="E281" s="246"/>
+      <c r="E281" s="249"/>
       <c r="F281" s="164" t="s">
         <v>1383</v>
       </c>
@@ -17524,7 +17520,7 @@
       <c r="Q281" s="165"/>
     </row>
     <row r="282" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A282" s="236"/>
+      <c r="A282" s="235"/>
       <c r="B282" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17565,7 +17561,7 @@
       <c r="Q282" s="209"/>
     </row>
     <row r="283" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A283" s="236"/>
+      <c r="A283" s="235"/>
       <c r="B283" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17608,7 +17604,7 @@
       <c r="Q283" s="216"/>
     </row>
     <row r="284" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A284" s="236"/>
+      <c r="A284" s="235"/>
       <c r="B284" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17651,7 +17647,7 @@
       <c r="Q284" s="165"/>
     </row>
     <row r="285" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A285" s="236"/>
+      <c r="A285" s="235"/>
       <c r="B285" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17694,7 +17690,7 @@
       <c r="Q285" s="165"/>
     </row>
     <row r="286" spans="1:17" ht="16.5">
-      <c r="A286" s="236"/>
+      <c r="A286" s="235"/>
       <c r="B286" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17737,7 +17733,7 @@
       <c r="Q286" s="165"/>
     </row>
     <row r="287" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A287" s="236"/>
+      <c r="A287" s="235"/>
       <c r="B287" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17778,7 +17774,7 @@
       <c r="Q287" s="209"/>
     </row>
     <row r="288" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A288" s="236"/>
+      <c r="A288" s="235"/>
       <c r="B288" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17819,7 +17815,7 @@
       <c r="Q288" s="165"/>
     </row>
     <row r="289" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A289" s="236"/>
+      <c r="A289" s="235"/>
       <c r="B289" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17860,7 +17856,7 @@
       <c r="Q289" s="165"/>
     </row>
     <row r="290" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A290" s="236"/>
+      <c r="A290" s="235"/>
       <c r="B290" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17901,7 +17897,7 @@
       <c r="Q290" s="165"/>
     </row>
     <row r="291" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A291" s="236"/>
+      <c r="A291" s="235"/>
       <c r="B291" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17944,7 +17940,7 @@
       <c r="Q291" s="165"/>
     </row>
     <row r="292" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A292" s="236"/>
+      <c r="A292" s="235"/>
       <c r="B292" s="158" t="s">
         <v>1300</v>
       </c>
@@ -17987,7 +17983,7 @@
       <c r="Q292" s="165"/>
     </row>
     <row r="293" spans="1:17" ht="16.5">
-      <c r="A293" s="236"/>
+      <c r="A293" s="235"/>
       <c r="B293" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18030,7 +18026,7 @@
       <c r="Q293" s="165"/>
     </row>
     <row r="294" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A294" s="236"/>
+      <c r="A294" s="235"/>
       <c r="B294" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18073,7 +18069,7 @@
       <c r="Q294" s="165"/>
     </row>
     <row r="295" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A295" s="236"/>
+      <c r="A295" s="235"/>
       <c r="B295" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18116,7 +18112,7 @@
       <c r="Q295" s="165"/>
     </row>
     <row r="296" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A296" s="236"/>
+      <c r="A296" s="235"/>
       <c r="B296" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18159,7 +18155,7 @@
       <c r="Q296" s="165"/>
     </row>
     <row r="297" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A297" s="236"/>
+      <c r="A297" s="235"/>
       <c r="B297" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18202,7 +18198,7 @@
       <c r="Q297" s="165"/>
     </row>
     <row r="298" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A298" s="236"/>
+      <c r="A298" s="235"/>
       <c r="B298" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18245,7 +18241,7 @@
       <c r="Q298" s="165"/>
     </row>
     <row r="299" spans="1:17" ht="16.5">
-      <c r="A299" s="236"/>
+      <c r="A299" s="235"/>
       <c r="B299" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18288,7 +18284,7 @@
       <c r="Q299" s="165"/>
     </row>
     <row r="300" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A300" s="236"/>
+      <c r="A300" s="235"/>
       <c r="B300" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18331,7 +18327,7 @@
       <c r="Q300" s="165"/>
     </row>
     <row r="301" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A301" s="236"/>
+      <c r="A301" s="235"/>
       <c r="B301" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18374,7 +18370,7 @@
       <c r="Q301" s="165"/>
     </row>
     <row r="302" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A302" s="236"/>
+      <c r="A302" s="235"/>
       <c r="B302" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18417,7 +18413,7 @@
       <c r="Q302" s="165"/>
     </row>
     <row r="303" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A303" s="236"/>
+      <c r="A303" s="235"/>
       <c r="B303" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18460,7 +18456,7 @@
       <c r="Q303" s="165"/>
     </row>
     <row r="304" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A304" s="236"/>
+      <c r="A304" s="235"/>
       <c r="B304" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18501,7 +18497,7 @@
       <c r="Q304" s="215"/>
     </row>
     <row r="305" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A305" s="236"/>
+      <c r="A305" s="235"/>
       <c r="B305" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18542,7 +18538,7 @@
       <c r="Q305" s="209"/>
     </row>
     <row r="306" spans="1:17" ht="16.5">
-      <c r="A306" s="236"/>
+      <c r="A306" s="235"/>
       <c r="B306" s="158" t="s">
         <v>1300</v>
       </c>
@@ -18583,10 +18579,10 @@
       <c r="Q306" s="216"/>
     </row>
     <row r="307" spans="1:17" s="138" customFormat="1" ht="36">
-      <c r="A307" s="247" t="s">
+      <c r="A307" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="B307" s="247" t="s">
+      <c r="B307" s="250" t="s">
         <v>794</v>
       </c>
       <c r="C307" s="137"/>
@@ -18616,8 +18612,8 @@
       <c r="Q307" s="137"/>
     </row>
     <row r="308" spans="1:17" ht="16.5">
-      <c r="A308" s="248"/>
-      <c r="B308" s="249"/>
+      <c r="A308" s="251"/>
+      <c r="B308" s="252"/>
       <c r="C308" s="29" t="s">
         <v>795</v>
       </c>
@@ -18647,8 +18643,8 @@
       <c r="Q308" s="137"/>
     </row>
     <row r="309" spans="1:17" ht="16.5">
-      <c r="A309" s="248"/>
-      <c r="B309" s="235" t="s">
+      <c r="A309" s="251"/>
+      <c r="B309" s="234" t="s">
         <v>90</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -18684,8 +18680,8 @@
       <c r="Q309" s="137"/>
     </row>
     <row r="310" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A310" s="248"/>
-      <c r="B310" s="236"/>
+      <c r="A310" s="251"/>
+      <c r="B310" s="235"/>
       <c r="C310" s="2" t="s">
         <v>92</v>
       </c>
@@ -18719,8 +18715,8 @@
       <c r="Q310" s="137"/>
     </row>
     <row r="311" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A311" s="248"/>
-      <c r="B311" s="236"/>
+      <c r="A311" s="251"/>
+      <c r="B311" s="235"/>
       <c r="C311" s="2" t="s">
         <v>1365</v>
       </c>
@@ -18754,8 +18750,8 @@
       <c r="Q311" s="137"/>
     </row>
     <row r="312" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A312" s="248"/>
-      <c r="B312" s="236"/>
+      <c r="A312" s="251"/>
+      <c r="B312" s="235"/>
       <c r="C312" s="2" t="s">
         <v>93</v>
       </c>
@@ -18789,8 +18785,8 @@
       <c r="Q312" s="137"/>
     </row>
     <row r="313" spans="1:17" ht="16.5">
-      <c r="A313" s="248"/>
-      <c r="B313" s="236"/>
+      <c r="A313" s="251"/>
+      <c r="B313" s="235"/>
       <c r="C313" s="2" t="s">
         <v>1366</v>
       </c>
@@ -18824,9 +18820,9 @@
       <c r="Q313" s="137"/>
     </row>
     <row r="314" spans="1:17" ht="16.5">
-      <c r="A314" s="248"/>
-      <c r="B314" s="236"/>
-      <c r="C314" s="238" t="s">
+      <c r="A314" s="251"/>
+      <c r="B314" s="235"/>
+      <c r="C314" s="240" t="s">
         <v>53</v>
       </c>
       <c r="D314" s="166" t="s">
@@ -18863,9 +18859,9 @@
       <c r="Q314" s="137"/>
     </row>
     <row r="315" spans="1:17" ht="16.5">
-      <c r="A315" s="248"/>
-      <c r="B315" s="236"/>
-      <c r="C315" s="239"/>
+      <c r="A315" s="251"/>
+      <c r="B315" s="235"/>
+      <c r="C315" s="241"/>
       <c r="D315" s="166" t="s">
         <v>1412</v>
       </c>
@@ -18900,9 +18896,9 @@
       <c r="Q315" s="137"/>
     </row>
     <row r="316" spans="1:17" ht="16.5">
-      <c r="A316" s="248"/>
-      <c r="B316" s="236"/>
-      <c r="C316" s="239"/>
+      <c r="A316" s="251"/>
+      <c r="B316" s="235"/>
+      <c r="C316" s="241"/>
       <c r="D316" s="166" t="s">
         <v>1412</v>
       </c>
@@ -18937,9 +18933,9 @@
       <c r="Q316" s="137"/>
     </row>
     <row r="317" spans="1:17" ht="16.5">
-      <c r="A317" s="248"/>
-      <c r="B317" s="236"/>
-      <c r="C317" s="240"/>
+      <c r="A317" s="251"/>
+      <c r="B317" s="235"/>
+      <c r="C317" s="242"/>
       <c r="D317" s="166" t="s">
         <v>1412</v>
       </c>
@@ -18974,9 +18970,9 @@
       <c r="Q317" s="137"/>
     </row>
     <row r="318" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A318" s="248"/>
-      <c r="B318" s="236"/>
-      <c r="C318" s="241" t="s">
+      <c r="A318" s="251"/>
+      <c r="B318" s="235"/>
+      <c r="C318" s="228" t="s">
         <v>98</v>
       </c>
       <c r="D318" s="166" t="s">
@@ -19013,9 +19009,9 @@
       <c r="Q318" s="137"/>
     </row>
     <row r="319" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A319" s="248"/>
-      <c r="B319" s="236"/>
-      <c r="C319" s="242"/>
+      <c r="A319" s="251"/>
+      <c r="B319" s="235"/>
+      <c r="C319" s="229"/>
       <c r="D319" s="166" t="s">
         <v>1412</v>
       </c>
@@ -19050,9 +19046,9 @@
       <c r="Q319" s="137"/>
     </row>
     <row r="320" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A320" s="248"/>
-      <c r="B320" s="236"/>
-      <c r="C320" s="243"/>
+      <c r="A320" s="251"/>
+      <c r="B320" s="235"/>
+      <c r="C320" s="230"/>
       <c r="D320" s="166" t="s">
         <v>1412</v>
       </c>
@@ -19087,8 +19083,8 @@
       <c r="Q320" s="137"/>
     </row>
     <row r="321" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A321" s="248"/>
-      <c r="B321" s="237"/>
+      <c r="A321" s="251"/>
+      <c r="B321" s="236"/>
       <c r="C321" s="137" t="s">
         <v>94</v>
       </c>
@@ -19122,8 +19118,8 @@
       <c r="Q321" s="137"/>
     </row>
     <row r="322" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A322" s="248"/>
-      <c r="B322" s="235" t="s">
+      <c r="A322" s="251"/>
+      <c r="B322" s="234" t="s">
         <v>95</v>
       </c>
       <c r="C322" s="2" t="s">
@@ -19159,8 +19155,8 @@
       <c r="Q322" s="137"/>
     </row>
     <row r="323" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A323" s="248"/>
-      <c r="B323" s="236"/>
+      <c r="A323" s="251"/>
+      <c r="B323" s="235"/>
       <c r="C323" s="2" t="s">
         <v>97</v>
       </c>
@@ -19188,8 +19184,8 @@
       <c r="Q323" s="137"/>
     </row>
     <row r="324" spans="1:17" ht="16.5">
-      <c r="A324" s="248"/>
-      <c r="B324" s="236"/>
+      <c r="A324" s="251"/>
+      <c r="B324" s="235"/>
       <c r="C324" s="2" t="s">
         <v>1474</v>
       </c>
@@ -19225,8 +19221,8 @@
       <c r="Q324" s="137"/>
     </row>
     <row r="325" spans="1:17" ht="16.5">
-      <c r="A325" s="248"/>
-      <c r="B325" s="236"/>
+      <c r="A325" s="251"/>
+      <c r="B325" s="235"/>
       <c r="C325" s="2" t="s">
         <v>98</v>
       </c>
@@ -19266,8 +19262,8 @@
       <c r="Q325" s="137"/>
     </row>
     <row r="326" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A326" s="248"/>
-      <c r="B326" s="237"/>
+      <c r="A326" s="251"/>
+      <c r="B326" s="236"/>
       <c r="C326" s="2"/>
       <c r="D326" s="166" t="s">
         <v>1412</v>
@@ -19305,8 +19301,8 @@
       <c r="Q326" s="137"/>
     </row>
     <row r="327" spans="1:17" ht="16.5">
-      <c r="A327" s="248"/>
-      <c r="B327" s="235" t="s">
+      <c r="A327" s="251"/>
+      <c r="B327" s="234" t="s">
         <v>99</v>
       </c>
       <c r="C327" s="2" t="s">
@@ -19340,8 +19336,8 @@
       <c r="Q327" s="137"/>
     </row>
     <row r="328" spans="1:17" ht="16.5">
-      <c r="A328" s="248"/>
-      <c r="B328" s="237"/>
+      <c r="A328" s="251"/>
+      <c r="B328" s="236"/>
       <c r="C328" s="2" t="s">
         <v>100</v>
       </c>
@@ -19377,7 +19373,7 @@
       <c r="Q328" s="137"/>
     </row>
     <row r="329" spans="1:17" ht="24">
-      <c r="A329" s="248"/>
+      <c r="A329" s="251"/>
       <c r="B329" s="1" t="s">
         <v>102</v>
       </c>
@@ -19412,7 +19408,7 @@
       <c r="Q329" s="137"/>
     </row>
     <row r="330" spans="1:17" ht="16.5">
-      <c r="A330" s="249"/>
+      <c r="A330" s="252"/>
       <c r="B330" s="180" t="s">
         <v>65</v>
       </c>
@@ -19447,10 +19443,10 @@
       <c r="Q330" s="137"/>
     </row>
     <row r="331" spans="1:17" ht="43.5" customHeight="1">
-      <c r="A331" s="235" t="s">
+      <c r="A331" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="B331" s="235" t="s">
+      <c r="B331" s="234" t="s">
         <v>103</v>
       </c>
       <c r="C331" s="2"/>
@@ -19478,8 +19474,8 @@
       <c r="Q331" s="137"/>
     </row>
     <row r="332" spans="1:17" ht="16.5">
-      <c r="A332" s="236"/>
-      <c r="B332" s="236"/>
+      <c r="A332" s="235"/>
+      <c r="B332" s="235"/>
       <c r="C332" s="65" t="s">
         <v>1477</v>
       </c>
@@ -19509,8 +19505,8 @@
       <c r="Q332" s="137"/>
     </row>
     <row r="333" spans="1:17" ht="16.5">
-      <c r="A333" s="236"/>
-      <c r="B333" s="237"/>
+      <c r="A333" s="235"/>
+      <c r="B333" s="236"/>
       <c r="C333" s="65" t="s">
         <v>1475</v>
       </c>
@@ -19540,11 +19536,11 @@
       <c r="Q333" s="137"/>
     </row>
     <row r="334" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A334" s="236"/>
-      <c r="B334" s="235" t="s">
+      <c r="A334" s="235"/>
+      <c r="B334" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="C334" s="232" t="s">
+      <c r="C334" s="256" t="s">
         <v>1469</v>
       </c>
       <c r="D334" s="146" t="s">
@@ -19577,9 +19573,9 @@
       <c r="Q334" s="137"/>
     </row>
     <row r="335" spans="1:17" ht="16.5">
-      <c r="A335" s="236"/>
-      <c r="B335" s="236"/>
-      <c r="C335" s="233"/>
+      <c r="A335" s="235"/>
+      <c r="B335" s="235"/>
+      <c r="C335" s="257"/>
       <c r="D335" s="146" t="s">
         <v>1429</v>
       </c>
@@ -19610,9 +19606,9 @@
       <c r="Q335" s="137"/>
     </row>
     <row r="336" spans="1:17" ht="16.5">
-      <c r="A336" s="236"/>
-      <c r="B336" s="236"/>
-      <c r="C336" s="233"/>
+      <c r="A336" s="235"/>
+      <c r="B336" s="235"/>
+      <c r="C336" s="257"/>
       <c r="D336" s="146" t="s">
         <v>1429</v>
       </c>
@@ -19643,9 +19639,9 @@
       <c r="Q336" s="137"/>
     </row>
     <row r="337" spans="1:17" ht="16.5">
-      <c r="A337" s="236"/>
-      <c r="B337" s="236"/>
-      <c r="C337" s="233"/>
+      <c r="A337" s="235"/>
+      <c r="B337" s="235"/>
+      <c r="C337" s="257"/>
       <c r="D337" s="146" t="s">
         <v>1429</v>
       </c>
@@ -19676,9 +19672,9 @@
       <c r="Q337" s="137"/>
     </row>
     <row r="338" spans="1:17" ht="16.5">
-      <c r="A338" s="236"/>
-      <c r="B338" s="236"/>
-      <c r="C338" s="233"/>
+      <c r="A338" s="235"/>
+      <c r="B338" s="235"/>
+      <c r="C338" s="257"/>
       <c r="D338" s="146" t="s">
         <v>1429</v>
       </c>
@@ -19709,9 +19705,9 @@
       <c r="Q338" s="137"/>
     </row>
     <row r="339" spans="1:17" ht="16.5">
-      <c r="A339" s="236"/>
-      <c r="B339" s="236"/>
-      <c r="C339" s="233"/>
+      <c r="A339" s="235"/>
+      <c r="B339" s="235"/>
+      <c r="C339" s="257"/>
       <c r="D339" s="146" t="s">
         <v>1429</v>
       </c>
@@ -19742,9 +19738,9 @@
       <c r="Q339" s="137"/>
     </row>
     <row r="340" spans="1:17" ht="16.5">
-      <c r="A340" s="236"/>
-      <c r="B340" s="236"/>
-      <c r="C340" s="234"/>
+      <c r="A340" s="235"/>
+      <c r="B340" s="235"/>
+      <c r="C340" s="258"/>
       <c r="D340" s="146" t="s">
         <v>1429</v>
       </c>
@@ -19775,12 +19771,12 @@
       <c r="Q340" s="137"/>
     </row>
     <row r="341" spans="1:17" ht="16.5">
-      <c r="A341" s="236"/>
-      <c r="B341" s="236"/>
-      <c r="C341" s="228" t="s">
+      <c r="A341" s="235"/>
+      <c r="B341" s="235"/>
+      <c r="C341" s="243" t="s">
         <v>1369</v>
       </c>
-      <c r="D341" s="230" t="s">
+      <c r="D341" s="262" t="s">
         <v>1457</v>
       </c>
       <c r="E341" s="133" t="s">
@@ -19814,10 +19810,10 @@
       <c r="Q341" s="137"/>
     </row>
     <row r="342" spans="1:17" ht="16.5">
-      <c r="A342" s="236"/>
-      <c r="B342" s="236"/>
-      <c r="C342" s="229"/>
-      <c r="D342" s="231"/>
+      <c r="A342" s="235"/>
+      <c r="B342" s="235"/>
+      <c r="C342" s="245"/>
+      <c r="D342" s="263"/>
       <c r="E342" s="133" t="s">
         <v>162</v>
       </c>
@@ -19849,8 +19845,8 @@
       <c r="Q342" s="137"/>
     </row>
     <row r="343" spans="1:17" ht="48">
-      <c r="A343" s="236"/>
-      <c r="B343" s="236"/>
+      <c r="A343" s="235"/>
+      <c r="B343" s="235"/>
       <c r="C343" s="137" t="s">
         <v>1370</v>
       </c>
@@ -19888,9 +19884,9 @@
       <c r="Q343" s="137"/>
     </row>
     <row r="344" spans="1:17" ht="72">
-      <c r="A344" s="236"/>
-      <c r="B344" s="236"/>
-      <c r="C344" s="232" t="s">
+      <c r="A344" s="235"/>
+      <c r="B344" s="235"/>
+      <c r="C344" s="256" t="s">
         <v>189</v>
       </c>
       <c r="D344" s="146" t="s">
@@ -19927,9 +19923,9 @@
       <c r="Q344" s="137"/>
     </row>
     <row r="345" spans="1:17" ht="48">
-      <c r="A345" s="236"/>
-      <c r="B345" s="236"/>
-      <c r="C345" s="233"/>
+      <c r="A345" s="235"/>
+      <c r="B345" s="235"/>
+      <c r="C345" s="257"/>
       <c r="D345" s="146" t="s">
         <v>1429</v>
       </c>
@@ -19964,9 +19960,9 @@
       <c r="Q345" s="137"/>
     </row>
     <row r="346" spans="1:17" ht="48">
-      <c r="A346" s="236"/>
-      <c r="B346" s="236"/>
-      <c r="C346" s="233"/>
+      <c r="A346" s="235"/>
+      <c r="B346" s="235"/>
+      <c r="C346" s="257"/>
       <c r="D346" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20001,9 +19997,9 @@
       <c r="Q346" s="137"/>
     </row>
     <row r="347" spans="1:17" ht="60">
-      <c r="A347" s="236"/>
-      <c r="B347" s="236"/>
-      <c r="C347" s="233"/>
+      <c r="A347" s="235"/>
+      <c r="B347" s="235"/>
+      <c r="C347" s="257"/>
       <c r="D347" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20038,9 +20034,9 @@
       <c r="Q347" s="137"/>
     </row>
     <row r="348" spans="1:17" ht="60">
-      <c r="A348" s="236"/>
-      <c r="B348" s="236"/>
-      <c r="C348" s="233"/>
+      <c r="A348" s="235"/>
+      <c r="B348" s="235"/>
+      <c r="C348" s="257"/>
       <c r="D348" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20075,9 +20071,9 @@
       <c r="Q348" s="137"/>
     </row>
     <row r="349" spans="1:17" ht="60">
-      <c r="A349" s="236"/>
-      <c r="B349" s="236"/>
-      <c r="C349" s="233"/>
+      <c r="A349" s="235"/>
+      <c r="B349" s="235"/>
+      <c r="C349" s="257"/>
       <c r="D349" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20112,9 +20108,9 @@
       <c r="Q349" s="137"/>
     </row>
     <row r="350" spans="1:17" ht="48">
-      <c r="A350" s="236"/>
-      <c r="B350" s="236"/>
-      <c r="C350" s="234"/>
+      <c r="A350" s="235"/>
+      <c r="B350" s="235"/>
+      <c r="C350" s="258"/>
       <c r="D350" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20149,8 +20145,8 @@
       <c r="Q350" s="137"/>
     </row>
     <row r="351" spans="1:17" ht="24">
-      <c r="A351" s="236"/>
-      <c r="B351" s="236"/>
+      <c r="A351" s="235"/>
+      <c r="B351" s="235"/>
       <c r="C351" s="133" t="s">
         <v>1470</v>
       </c>
@@ -20184,8 +20180,8 @@
       <c r="Q351" s="137"/>
     </row>
     <row r="352" spans="1:17" ht="16.5">
-      <c r="A352" s="236"/>
-      <c r="B352" s="236"/>
+      <c r="A352" s="235"/>
+      <c r="B352" s="235"/>
       <c r="C352" s="133" t="s">
         <v>1471</v>
       </c>
@@ -20219,9 +20215,9 @@
       <c r="Q352" s="137"/>
     </row>
     <row r="353" spans="1:17" ht="40.5">
-      <c r="A353" s="236"/>
-      <c r="B353" s="236"/>
-      <c r="C353" s="238" t="s">
+      <c r="A353" s="235"/>
+      <c r="B353" s="235"/>
+      <c r="C353" s="240" t="s">
         <v>123</v>
       </c>
       <c r="D353" s="146" t="s">
@@ -20254,9 +20250,9 @@
       <c r="Q353" s="137"/>
     </row>
     <row r="354" spans="1:17" ht="16.5">
-      <c r="A354" s="236"/>
-      <c r="B354" s="236"/>
-      <c r="C354" s="239"/>
+      <c r="A354" s="235"/>
+      <c r="B354" s="235"/>
+      <c r="C354" s="241"/>
       <c r="D354" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20291,9 +20287,9 @@
       <c r="Q354" s="137"/>
     </row>
     <row r="355" spans="1:17" ht="16.5">
-      <c r="A355" s="236"/>
-      <c r="B355" s="236"/>
-      <c r="C355" s="239"/>
+      <c r="A355" s="235"/>
+      <c r="B355" s="235"/>
+      <c r="C355" s="241"/>
       <c r="D355" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20328,9 +20324,9 @@
       <c r="Q355" s="137"/>
     </row>
     <row r="356" spans="1:17" ht="16.5">
-      <c r="A356" s="236"/>
-      <c r="B356" s="236"/>
-      <c r="C356" s="239"/>
+      <c r="A356" s="235"/>
+      <c r="B356" s="235"/>
+      <c r="C356" s="241"/>
       <c r="D356" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20365,9 +20361,9 @@
       <c r="Q356" s="137"/>
     </row>
     <row r="357" spans="1:17" ht="16.5">
-      <c r="A357" s="236"/>
-      <c r="B357" s="236"/>
-      <c r="C357" s="239"/>
+      <c r="A357" s="235"/>
+      <c r="B357" s="235"/>
+      <c r="C357" s="241"/>
       <c r="D357" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20402,9 +20398,9 @@
       <c r="Q357" s="137"/>
     </row>
     <row r="358" spans="1:17" ht="16.5">
-      <c r="A358" s="236"/>
-      <c r="B358" s="236"/>
-      <c r="C358" s="240"/>
+      <c r="A358" s="235"/>
+      <c r="B358" s="235"/>
+      <c r="C358" s="242"/>
       <c r="D358" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20437,8 +20433,8 @@
       <c r="Q358" s="137"/>
     </row>
     <row r="359" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A359" s="236"/>
-      <c r="B359" s="237"/>
+      <c r="A359" s="235"/>
+      <c r="B359" s="236"/>
       <c r="C359" s="137" t="s">
         <v>107</v>
       </c>
@@ -20468,11 +20464,11 @@
       <c r="Q359" s="137"/>
     </row>
     <row r="360" spans="1:17" s="138" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A360" s="236"/>
-      <c r="B360" s="235" t="s">
+      <c r="A360" s="235"/>
+      <c r="B360" s="234" t="s">
         <v>108</v>
       </c>
-      <c r="C360" s="238" t="s">
+      <c r="C360" s="240" t="s">
         <v>109</v>
       </c>
       <c r="D360" s="146" t="s">
@@ -20505,9 +20501,9 @@
       <c r="Q360" s="137"/>
     </row>
     <row r="361" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A361" s="236"/>
-      <c r="B361" s="236"/>
-      <c r="C361" s="239"/>
+      <c r="A361" s="235"/>
+      <c r="B361" s="235"/>
+      <c r="C361" s="241"/>
       <c r="D361" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20538,9 +20534,9 @@
       <c r="Q361" s="137"/>
     </row>
     <row r="362" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A362" s="236"/>
-      <c r="B362" s="236"/>
-      <c r="C362" s="239"/>
+      <c r="A362" s="235"/>
+      <c r="B362" s="235"/>
+      <c r="C362" s="241"/>
       <c r="D362" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20571,9 +20567,9 @@
       <c r="Q362" s="137"/>
     </row>
     <row r="363" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A363" s="236"/>
-      <c r="B363" s="236"/>
-      <c r="C363" s="239"/>
+      <c r="A363" s="235"/>
+      <c r="B363" s="235"/>
+      <c r="C363" s="241"/>
       <c r="D363" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20606,9 +20602,9 @@
       <c r="Q363" s="137"/>
     </row>
     <row r="364" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A364" s="236"/>
-      <c r="B364" s="236"/>
-      <c r="C364" s="240"/>
+      <c r="A364" s="235"/>
+      <c r="B364" s="235"/>
+      <c r="C364" s="242"/>
       <c r="D364" s="146" t="s">
         <v>1429</v>
       </c>
@@ -20639,8 +20635,8 @@
       <c r="Q364" s="137"/>
     </row>
     <row r="365" spans="1:17" ht="60">
-      <c r="A365" s="236"/>
-      <c r="B365" s="236"/>
+      <c r="A365" s="235"/>
+      <c r="B365" s="235"/>
       <c r="C365" s="2" t="s">
         <v>110</v>
       </c>
@@ -20674,8 +20670,8 @@
       <c r="Q365" s="137"/>
     </row>
     <row r="366" spans="1:17" ht="24">
-      <c r="A366" s="236"/>
-      <c r="B366" s="236"/>
+      <c r="A366" s="235"/>
+      <c r="B366" s="235"/>
       <c r="C366" s="2" t="s">
         <v>1476</v>
       </c>
@@ -20709,8 +20705,8 @@
       <c r="Q366" s="137"/>
     </row>
     <row r="367" spans="1:17" ht="40.5">
-      <c r="A367" s="236"/>
-      <c r="B367" s="236"/>
+      <c r="A367" s="235"/>
+      <c r="B367" s="235"/>
       <c r="C367" s="2" t="s">
         <v>111</v>
       </c>
@@ -20740,8 +20736,8 @@
       <c r="Q367" s="137"/>
     </row>
     <row r="368" spans="1:17" ht="40.5">
-      <c r="A368" s="236"/>
-      <c r="B368" s="235" t="s">
+      <c r="A368" s="235"/>
+      <c r="B368" s="234" t="s">
         <v>112</v>
       </c>
       <c r="C368" s="2" t="s">
@@ -20773,8 +20769,8 @@
       <c r="Q368" s="207"/>
     </row>
     <row r="369" spans="1:17" ht="27">
-      <c r="A369" s="236"/>
-      <c r="B369" s="236"/>
+      <c r="A369" s="235"/>
+      <c r="B369" s="235"/>
       <c r="C369" s="65" t="s">
         <v>114</v>
       </c>
@@ -20806,8 +20802,8 @@
       <c r="Q369" s="207"/>
     </row>
     <row r="370" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A370" s="236"/>
-      <c r="B370" s="236"/>
+      <c r="A370" s="235"/>
+      <c r="B370" s="235"/>
       <c r="C370" s="2" t="s">
         <v>115</v>
       </c>
@@ -20839,8 +20835,8 @@
       <c r="Q370" s="137"/>
     </row>
     <row r="371" spans="1:17" ht="16.5">
-      <c r="A371" s="236"/>
-      <c r="B371" s="236"/>
+      <c r="A371" s="235"/>
+      <c r="B371" s="235"/>
       <c r="C371" s="2" t="s">
         <v>1369</v>
       </c>
@@ -20874,8 +20870,8 @@
       <c r="Q371" s="137"/>
     </row>
     <row r="372" spans="1:17" ht="16.5">
-      <c r="A372" s="236"/>
-      <c r="B372" s="237"/>
+      <c r="A372" s="235"/>
+      <c r="B372" s="236"/>
       <c r="C372" s="2" t="s">
         <v>116</v>
       </c>
@@ -20901,7 +20897,7 @@
       <c r="Q372" s="137"/>
     </row>
     <row r="373" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A373" s="236"/>
+      <c r="A373" s="235"/>
       <c r="B373" s="148" t="s">
         <v>117</v>
       </c>
@@ -20932,11 +20928,11 @@
       <c r="Q373" s="218"/>
     </row>
     <row r="374" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A374" s="236"/>
-      <c r="B374" s="235" t="s">
+      <c r="A374" s="235"/>
+      <c r="B374" s="234" t="s">
         <v>1310</v>
       </c>
-      <c r="C374" s="241" t="s">
+      <c r="C374" s="228" t="s">
         <v>119</v>
       </c>
       <c r="D374" s="143" t="s">
@@ -20971,9 +20967,9 @@
       <c r="Q374" s="137"/>
     </row>
     <row r="375" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A375" s="236"/>
-      <c r="B375" s="236"/>
-      <c r="C375" s="242"/>
+      <c r="A375" s="235"/>
+      <c r="B375" s="235"/>
+      <c r="C375" s="229"/>
       <c r="D375" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21008,9 +21004,9 @@
       <c r="Q375" s="137"/>
     </row>
     <row r="376" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A376" s="236"/>
-      <c r="B376" s="236"/>
-      <c r="C376" s="242"/>
+      <c r="A376" s="235"/>
+      <c r="B376" s="235"/>
+      <c r="C376" s="229"/>
       <c r="D376" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21039,9 +21035,9 @@
       <c r="Q376" s="137"/>
     </row>
     <row r="377" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A377" s="236"/>
-      <c r="B377" s="236"/>
-      <c r="C377" s="242"/>
+      <c r="A377" s="235"/>
+      <c r="B377" s="235"/>
+      <c r="C377" s="229"/>
       <c r="D377" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21074,9 +21070,9 @@
       <c r="Q377" s="137"/>
     </row>
     <row r="378" spans="1:17" ht="48">
-      <c r="A378" s="236"/>
-      <c r="B378" s="236"/>
-      <c r="C378" s="242"/>
+      <c r="A378" s="235"/>
+      <c r="B378" s="235"/>
+      <c r="C378" s="229"/>
       <c r="D378" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21109,9 +21105,9 @@
       <c r="Q378" s="137"/>
     </row>
     <row r="379" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A379" s="236"/>
-      <c r="B379" s="236"/>
-      <c r="C379" s="242"/>
+      <c r="A379" s="235"/>
+      <c r="B379" s="235"/>
+      <c r="C379" s="229"/>
       <c r="D379" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21142,9 +21138,9 @@
       <c r="Q379" s="137"/>
     </row>
     <row r="380" spans="1:17" ht="48">
-      <c r="A380" s="236"/>
-      <c r="B380" s="236"/>
-      <c r="C380" s="242"/>
+      <c r="A380" s="235"/>
+      <c r="B380" s="235"/>
+      <c r="C380" s="229"/>
       <c r="D380" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21177,9 +21173,9 @@
       <c r="Q380" s="137"/>
     </row>
     <row r="381" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A381" s="236"/>
-      <c r="B381" s="236"/>
-      <c r="C381" s="242"/>
+      <c r="A381" s="235"/>
+      <c r="B381" s="235"/>
+      <c r="C381" s="229"/>
       <c r="D381" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21212,9 +21208,9 @@
       <c r="Q381" s="137"/>
     </row>
     <row r="382" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A382" s="236"/>
-      <c r="B382" s="236"/>
-      <c r="C382" s="242"/>
+      <c r="A382" s="235"/>
+      <c r="B382" s="235"/>
+      <c r="C382" s="229"/>
       <c r="D382" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21245,9 +21241,9 @@
       <c r="Q382" s="137"/>
     </row>
     <row r="383" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A383" s="236"/>
-      <c r="B383" s="236"/>
-      <c r="C383" s="242"/>
+      <c r="A383" s="235"/>
+      <c r="B383" s="235"/>
+      <c r="C383" s="229"/>
       <c r="D383" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21282,9 +21278,9 @@
       <c r="Q383" s="137"/>
     </row>
     <row r="384" spans="1:17" ht="16.5">
-      <c r="A384" s="236"/>
-      <c r="B384" s="236"/>
-      <c r="C384" s="242"/>
+      <c r="A384" s="235"/>
+      <c r="B384" s="235"/>
+      <c r="C384" s="229"/>
       <c r="D384" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21315,9 +21311,9 @@
       <c r="Q384" s="137"/>
     </row>
     <row r="385" spans="1:17" ht="48">
-      <c r="A385" s="236"/>
-      <c r="B385" s="236"/>
-      <c r="C385" s="242"/>
+      <c r="A385" s="235"/>
+      <c r="B385" s="235"/>
+      <c r="C385" s="229"/>
       <c r="D385" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21352,9 +21348,9 @@
       <c r="Q385" s="137"/>
     </row>
     <row r="386" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A386" s="236"/>
-      <c r="B386" s="236"/>
-      <c r="C386" s="242"/>
+      <c r="A386" s="235"/>
+      <c r="B386" s="235"/>
+      <c r="C386" s="229"/>
       <c r="D386" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21385,9 +21381,9 @@
       <c r="Q386" s="137"/>
     </row>
     <row r="387" spans="1:17" ht="16.5">
-      <c r="A387" s="236"/>
-      <c r="B387" s="236"/>
-      <c r="C387" s="242"/>
+      <c r="A387" s="235"/>
+      <c r="B387" s="235"/>
+      <c r="C387" s="229"/>
       <c r="D387" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21416,9 +21412,9 @@
       <c r="Q387" s="137"/>
     </row>
     <row r="388" spans="1:17" ht="36">
-      <c r="A388" s="236"/>
-      <c r="B388" s="236"/>
-      <c r="C388" s="242"/>
+      <c r="A388" s="235"/>
+      <c r="B388" s="235"/>
+      <c r="C388" s="229"/>
       <c r="D388" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21451,9 +21447,9 @@
       <c r="Q388" s="137"/>
     </row>
     <row r="389" spans="1:17" ht="36">
-      <c r="A389" s="236"/>
-      <c r="B389" s="236"/>
-      <c r="C389" s="242"/>
+      <c r="A389" s="235"/>
+      <c r="B389" s="235"/>
+      <c r="C389" s="229"/>
       <c r="D389" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21486,9 +21482,9 @@
       <c r="Q389" s="137"/>
     </row>
     <row r="390" spans="1:17" ht="36">
-      <c r="A390" s="236"/>
-      <c r="B390" s="236"/>
-      <c r="C390" s="243"/>
+      <c r="A390" s="235"/>
+      <c r="B390" s="235"/>
+      <c r="C390" s="230"/>
       <c r="D390" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21521,8 +21517,8 @@
       <c r="Q390" s="137"/>
     </row>
     <row r="391" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A391" s="236"/>
-      <c r="B391" s="236"/>
+      <c r="A391" s="235"/>
+      <c r="B391" s="235"/>
       <c r="C391" s="2" t="s">
         <v>1369</v>
       </c>
@@ -21556,8 +21552,8 @@
       <c r="Q391" s="137"/>
     </row>
     <row r="392" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A392" s="236"/>
-      <c r="B392" s="236"/>
+      <c r="A392" s="235"/>
+      <c r="B392" s="235"/>
       <c r="C392" s="2" t="s">
         <v>1373</v>
       </c>
@@ -21589,9 +21585,9 @@
       <c r="Q392" s="137"/>
     </row>
     <row r="393" spans="1:17" ht="16.5">
-      <c r="A393" s="236"/>
-      <c r="B393" s="236"/>
-      <c r="C393" s="232" t="s">
+      <c r="A393" s="235"/>
+      <c r="B393" s="235"/>
+      <c r="C393" s="256" t="s">
         <v>1242</v>
       </c>
       <c r="D393" s="143" t="s">
@@ -21626,9 +21622,9 @@
       <c r="Q393" s="137"/>
     </row>
     <row r="394" spans="1:17" ht="60" customHeight="1">
-      <c r="A394" s="236"/>
-      <c r="B394" s="236"/>
-      <c r="C394" s="233"/>
+      <c r="A394" s="235"/>
+      <c r="B394" s="235"/>
+      <c r="C394" s="257"/>
       <c r="D394" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21663,9 +21659,9 @@
       <c r="Q394" s="137"/>
     </row>
     <row r="395" spans="1:17" ht="16.5">
-      <c r="A395" s="236"/>
-      <c r="B395" s="236"/>
-      <c r="C395" s="233"/>
+      <c r="A395" s="235"/>
+      <c r="B395" s="235"/>
+      <c r="C395" s="257"/>
       <c r="D395" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21696,9 +21692,9 @@
       <c r="Q395" s="137"/>
     </row>
     <row r="396" spans="1:17" ht="60" customHeight="1">
-      <c r="A396" s="236"/>
-      <c r="B396" s="236"/>
-      <c r="C396" s="233"/>
+      <c r="A396" s="235"/>
+      <c r="B396" s="235"/>
+      <c r="C396" s="257"/>
       <c r="D396" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21733,9 +21729,9 @@
       <c r="Q396" s="137"/>
     </row>
     <row r="397" spans="1:17" ht="16.5">
-      <c r="A397" s="236"/>
-      <c r="B397" s="236"/>
-      <c r="C397" s="233"/>
+      <c r="A397" s="235"/>
+      <c r="B397" s="235"/>
+      <c r="C397" s="257"/>
       <c r="D397" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21766,9 +21762,9 @@
       <c r="Q397" s="137"/>
     </row>
     <row r="398" spans="1:17" ht="60">
-      <c r="A398" s="236"/>
-      <c r="B398" s="236"/>
-      <c r="C398" s="233"/>
+      <c r="A398" s="235"/>
+      <c r="B398" s="235"/>
+      <c r="C398" s="257"/>
       <c r="D398" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21803,9 +21799,9 @@
       <c r="Q398" s="137"/>
     </row>
     <row r="399" spans="1:17" ht="16.5">
-      <c r="A399" s="236"/>
-      <c r="B399" s="236"/>
-      <c r="C399" s="233"/>
+      <c r="A399" s="235"/>
+      <c r="B399" s="235"/>
+      <c r="C399" s="257"/>
       <c r="D399" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21838,9 +21834,9 @@
       <c r="Q399" s="137"/>
     </row>
     <row r="400" spans="1:17" ht="48">
-      <c r="A400" s="236"/>
-      <c r="B400" s="236"/>
-      <c r="C400" s="233"/>
+      <c r="A400" s="235"/>
+      <c r="B400" s="235"/>
+      <c r="C400" s="257"/>
       <c r="D400" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21873,9 +21869,9 @@
       <c r="Q400" s="137"/>
     </row>
     <row r="401" spans="1:17" ht="16.5">
-      <c r="A401" s="236"/>
-      <c r="B401" s="236"/>
-      <c r="C401" s="233"/>
+      <c r="A401" s="235"/>
+      <c r="B401" s="235"/>
+      <c r="C401" s="257"/>
       <c r="D401" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21906,9 +21902,9 @@
       <c r="Q401" s="137"/>
     </row>
     <row r="402" spans="1:17" ht="48">
-      <c r="A402" s="236"/>
-      <c r="B402" s="236"/>
-      <c r="C402" s="233"/>
+      <c r="A402" s="235"/>
+      <c r="B402" s="235"/>
+      <c r="C402" s="257"/>
       <c r="D402" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21941,9 +21937,9 @@
       <c r="Q402" s="137"/>
     </row>
     <row r="403" spans="1:17" ht="36">
-      <c r="A403" s="236"/>
-      <c r="B403" s="236"/>
-      <c r="C403" s="233"/>
+      <c r="A403" s="235"/>
+      <c r="B403" s="235"/>
+      <c r="C403" s="257"/>
       <c r="D403" s="143" t="s">
         <v>1429</v>
       </c>
@@ -21980,9 +21976,9 @@
       <c r="Q403" s="137"/>
     </row>
     <row r="404" spans="1:17" ht="24">
-      <c r="A404" s="236"/>
-      <c r="B404" s="236"/>
-      <c r="C404" s="234"/>
+      <c r="A404" s="235"/>
+      <c r="B404" s="235"/>
+      <c r="C404" s="258"/>
       <c r="D404" s="143" t="s">
         <v>1429</v>
       </c>
@@ -22015,8 +22011,8 @@
       <c r="Q404" s="137"/>
     </row>
     <row r="405" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A405" s="236"/>
-      <c r="B405" s="235" t="s">
+      <c r="A405" s="235"/>
+      <c r="B405" s="234" t="s">
         <v>121</v>
       </c>
       <c r="C405" s="2" t="s">
@@ -22048,8 +22044,8 @@
       <c r="Q405" s="137"/>
     </row>
     <row r="406" spans="1:17" ht="72">
-      <c r="A406" s="236"/>
-      <c r="B406" s="236"/>
+      <c r="A406" s="235"/>
+      <c r="B406" s="235"/>
       <c r="C406" s="2" t="s">
         <v>1374</v>
       </c>
@@ -22083,8 +22079,8 @@
       <c r="Q406" s="137"/>
     </row>
     <row r="407" spans="1:17" ht="24">
-      <c r="A407" s="236"/>
-      <c r="B407" s="236"/>
+      <c r="A407" s="235"/>
+      <c r="B407" s="235"/>
       <c r="C407" s="2" t="s">
         <v>1375</v>
       </c>
@@ -22118,7 +22114,7 @@
       <c r="Q407" s="137"/>
     </row>
     <row r="408" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A408" s="222" t="s">
+      <c r="A408" s="259" t="s">
         <v>539</v>
       </c>
       <c r="B408" s="44"/>
@@ -22151,7 +22147,7 @@
       <c r="Q408" s="219"/>
     </row>
     <row r="409" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A409" s="223"/>
+      <c r="A409" s="260"/>
       <c r="B409" s="44"/>
       <c r="C409" s="44"/>
       <c r="D409" s="147" t="s">
@@ -22182,7 +22178,7 @@
       <c r="Q409" s="219"/>
     </row>
     <row r="410" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A410" s="223"/>
+      <c r="A410" s="260"/>
       <c r="B410" s="44"/>
       <c r="C410" s="44"/>
       <c r="D410" s="147" t="s">
@@ -22213,7 +22209,7 @@
       <c r="Q410" s="219"/>
     </row>
     <row r="411" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A411" s="223"/>
+      <c r="A411" s="260"/>
       <c r="B411" s="44"/>
       <c r="C411" s="44"/>
       <c r="D411" s="147" t="s">
@@ -22244,7 +22240,7 @@
       <c r="Q411" s="219"/>
     </row>
     <row r="412" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A412" s="223"/>
+      <c r="A412" s="260"/>
       <c r="B412" s="44"/>
       <c r="C412" s="44"/>
       <c r="D412" s="147" t="s">
@@ -22275,7 +22271,7 @@
       <c r="Q412" s="219"/>
     </row>
     <row r="413" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A413" s="223"/>
+      <c r="A413" s="260"/>
       <c r="B413" s="44"/>
       <c r="C413" s="44"/>
       <c r="D413" s="147" t="s">
@@ -22306,7 +22302,7 @@
       <c r="Q413" s="219"/>
     </row>
     <row r="414" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A414" s="223"/>
+      <c r="A414" s="260"/>
       <c r="B414" s="44"/>
       <c r="C414" s="44"/>
       <c r="D414" s="147" t="s">
@@ -22337,7 +22333,7 @@
       <c r="Q414" s="219"/>
     </row>
     <row r="415" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A415" s="224"/>
+      <c r="A415" s="261"/>
       <c r="B415" s="44"/>
       <c r="C415" s="44"/>
       <c r="D415" s="147" t="s">
@@ -22399,7 +22395,7 @@
       <c r="Q416" s="219"/>
     </row>
     <row r="417" spans="1:17" ht="36">
-      <c r="A417" s="222" t="s">
+      <c r="A417" s="259" t="s">
         <v>684</v>
       </c>
       <c r="B417" s="183" t="s">
@@ -22436,8 +22432,8 @@
       <c r="Q417" s="220"/>
     </row>
     <row r="418" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A418" s="223"/>
-      <c r="B418" s="222" t="s">
+      <c r="A418" s="260"/>
+      <c r="B418" s="259" t="s">
         <v>541</v>
       </c>
       <c r="C418" s="44"/>
@@ -22467,8 +22463,8 @@
       <c r="Q418" s="220"/>
     </row>
     <row r="419" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A419" s="224"/>
-      <c r="B419" s="224"/>
+      <c r="A419" s="261"/>
+      <c r="B419" s="261"/>
       <c r="C419" s="44" t="s">
         <v>686</v>
       </c>
@@ -22498,10 +22494,10 @@
       <c r="Q419" s="220"/>
     </row>
     <row r="420" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A420" s="222" t="s">
+      <c r="A420" s="259" t="s">
         <v>1486</v>
       </c>
-      <c r="B420" s="225" t="s">
+      <c r="B420" s="265" t="s">
         <v>1487</v>
       </c>
       <c r="C420" s="185"/>
@@ -22539,8 +22535,8 @@
       <c r="Q420" s="220"/>
     </row>
     <row r="421" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A421" s="223"/>
-      <c r="B421" s="226"/>
+      <c r="A421" s="260"/>
+      <c r="B421" s="266"/>
       <c r="C421" s="185"/>
       <c r="D421" s="185" t="s">
         <v>1429</v>
@@ -22576,8 +22572,8 @@
       <c r="Q421" s="220"/>
     </row>
     <row r="422" spans="1:17" ht="24">
-      <c r="A422" s="223"/>
-      <c r="B422" s="227"/>
+      <c r="A422" s="260"/>
+      <c r="B422" s="267"/>
       <c r="C422" s="185"/>
       <c r="D422" s="185" t="s">
         <v>1429</v>
@@ -22613,8 +22609,8 @@
       <c r="Q422" s="220"/>
     </row>
     <row r="423" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A423" s="223"/>
-      <c r="B423" s="225" t="s">
+      <c r="A423" s="260"/>
+      <c r="B423" s="265" t="s">
         <v>1490</v>
       </c>
       <c r="C423" s="185"/>
@@ -22650,8 +22646,8 @@
       <c r="Q423" s="186"/>
     </row>
     <row r="424" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A424" s="223"/>
-      <c r="B424" s="227"/>
+      <c r="A424" s="260"/>
+      <c r="B424" s="267"/>
       <c r="C424" s="185"/>
       <c r="D424" s="185" t="s">
         <v>1429</v>
@@ -22685,8 +22681,8 @@
       <c r="Q424" s="186"/>
     </row>
     <row r="425" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A425" s="223"/>
-      <c r="B425" s="225" t="s">
+      <c r="A425" s="260"/>
+      <c r="B425" s="265" t="s">
         <v>1492</v>
       </c>
       <c r="C425" s="185"/>
@@ -22722,8 +22718,8 @@
       <c r="Q425" s="186"/>
     </row>
     <row r="426" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A426" s="223"/>
-      <c r="B426" s="226"/>
+      <c r="A426" s="260"/>
+      <c r="B426" s="266"/>
       <c r="C426" s="185"/>
       <c r="D426" s="185" t="s">
         <v>1429</v>
@@ -22757,8 +22753,8 @@
       <c r="Q426" s="186"/>
     </row>
     <row r="427" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A427" s="223"/>
-      <c r="B427" s="226"/>
+      <c r="A427" s="260"/>
+      <c r="B427" s="266"/>
       <c r="C427" s="185"/>
       <c r="D427" s="185" t="s">
         <v>1429</v>
@@ -22792,8 +22788,8 @@
       <c r="Q427" s="186"/>
     </row>
     <row r="428" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A428" s="223"/>
-      <c r="B428" s="227"/>
+      <c r="A428" s="260"/>
+      <c r="B428" s="267"/>
       <c r="C428" s="185"/>
       <c r="D428" s="185" t="s">
         <v>1429</v>
@@ -22827,8 +22823,8 @@
       <c r="Q428" s="186"/>
     </row>
     <row r="429" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A429" s="223"/>
-      <c r="B429" s="225" t="s">
+      <c r="A429" s="260"/>
+      <c r="B429" s="265" t="s">
         <v>1495</v>
       </c>
       <c r="C429" s="185"/>
@@ -22866,8 +22862,8 @@
       <c r="Q429" s="220"/>
     </row>
     <row r="430" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A430" s="223"/>
-      <c r="B430" s="226"/>
+      <c r="A430" s="260"/>
+      <c r="B430" s="266"/>
       <c r="C430" s="185"/>
       <c r="D430" s="185" t="s">
         <v>1429</v>
@@ -22903,8 +22899,8 @@
       <c r="Q430" s="220"/>
     </row>
     <row r="431" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A431" s="223"/>
-      <c r="B431" s="226"/>
+      <c r="A431" s="260"/>
+      <c r="B431" s="266"/>
       <c r="C431" s="185"/>
       <c r="D431" s="185" t="s">
         <v>1429</v>
@@ -22940,8 +22936,8 @@
       <c r="Q431" s="219"/>
     </row>
     <row r="432" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A432" s="223"/>
-      <c r="B432" s="226"/>
+      <c r="A432" s="260"/>
+      <c r="B432" s="266"/>
       <c r="C432" s="185"/>
       <c r="D432" s="185" t="s">
         <v>1429</v>
@@ -22977,8 +22973,8 @@
       <c r="Q432" s="219"/>
     </row>
     <row r="433" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A433" s="223"/>
-      <c r="B433" s="226"/>
+      <c r="A433" s="260"/>
+      <c r="B433" s="266"/>
       <c r="C433" s="185"/>
       <c r="D433" s="185" t="s">
         <v>1429</v>
@@ -23014,8 +23010,8 @@
       <c r="Q433" s="219"/>
     </row>
     <row r="434" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A434" s="223"/>
-      <c r="B434" s="226"/>
+      <c r="A434" s="260"/>
+      <c r="B434" s="266"/>
       <c r="C434" s="185"/>
       <c r="D434" s="185" t="s">
         <v>1429</v>
@@ -23051,8 +23047,8 @@
       <c r="Q434" s="219"/>
     </row>
     <row r="435" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A435" s="223"/>
-      <c r="B435" s="226"/>
+      <c r="A435" s="260"/>
+      <c r="B435" s="266"/>
       <c r="C435" s="185"/>
       <c r="D435" s="185" t="s">
         <v>1429</v>
@@ -23088,8 +23084,8 @@
       <c r="Q435" s="219"/>
     </row>
     <row r="436" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A436" s="223"/>
-      <c r="B436" s="226"/>
+      <c r="A436" s="260"/>
+      <c r="B436" s="266"/>
       <c r="C436" s="185"/>
       <c r="D436" s="185" t="s">
         <v>1429</v>
@@ -23125,8 +23121,8 @@
       <c r="Q436" s="219"/>
     </row>
     <row r="437" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A437" s="223"/>
-      <c r="B437" s="226"/>
+      <c r="A437" s="260"/>
+      <c r="B437" s="266"/>
       <c r="C437" s="185"/>
       <c r="D437" s="185" t="s">
         <v>1429</v>
@@ -23162,8 +23158,8 @@
       <c r="Q437" s="219"/>
     </row>
     <row r="438" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A438" s="223"/>
-      <c r="B438" s="226"/>
+      <c r="A438" s="260"/>
+      <c r="B438" s="266"/>
       <c r="C438" s="185"/>
       <c r="D438" s="185" t="s">
         <v>1429</v>
@@ -23199,8 +23195,8 @@
       <c r="Q438" s="219"/>
     </row>
     <row r="439" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A439" s="223"/>
-      <c r="B439" s="226"/>
+      <c r="A439" s="260"/>
+      <c r="B439" s="266"/>
       <c r="C439" s="185"/>
       <c r="D439" s="185" t="s">
         <v>1429</v>
@@ -23238,8 +23234,8 @@
       <c r="Q439" s="219"/>
     </row>
     <row r="440" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A440" s="223"/>
-      <c r="B440" s="227"/>
+      <c r="A440" s="260"/>
+      <c r="B440" s="267"/>
       <c r="C440" s="185"/>
       <c r="D440" s="185" t="s">
         <v>1429</v>
@@ -23275,7 +23271,7 @@
       <c r="Q440" s="219"/>
     </row>
     <row r="441" spans="1:17" ht="24">
-      <c r="A441" s="223"/>
+      <c r="A441" s="260"/>
       <c r="B441" s="185" t="s">
         <v>1506</v>
       </c>
@@ -23308,7 +23304,7 @@
       <c r="Q441" s="219"/>
     </row>
     <row r="442" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A442" s="222" t="s">
+      <c r="A442" s="259" t="s">
         <v>693</v>
       </c>
       <c r="B442" s="44" t="s">
@@ -23341,8 +23337,8 @@
       <c r="Q442" s="219"/>
     </row>
     <row r="443" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A443" s="223"/>
-      <c r="B443" s="222" t="s">
+      <c r="A443" s="260"/>
+      <c r="B443" s="259" t="s">
         <v>688</v>
       </c>
       <c r="C443" s="44" t="s">
@@ -23376,8 +23372,8 @@
       <c r="Q443" s="219"/>
     </row>
     <row r="444" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A444" s="223"/>
-      <c r="B444" s="223"/>
+      <c r="A444" s="260"/>
+      <c r="B444" s="260"/>
       <c r="C444" s="44" t="s">
         <v>694</v>
       </c>
@@ -23407,7 +23403,7 @@
       <c r="Q444" s="219"/>
     </row>
     <row r="445" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A445" s="223"/>
+      <c r="A445" s="260"/>
       <c r="B445" s="44" t="s">
         <v>689</v>
       </c>
@@ -23438,8 +23434,8 @@
       <c r="Q445" s="219"/>
     </row>
     <row r="446" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A446" s="223"/>
-      <c r="B446" s="222" t="s">
+      <c r="A446" s="260"/>
+      <c r="B446" s="259" t="s">
         <v>690</v>
       </c>
       <c r="C446" s="44" t="s">
@@ -23471,8 +23467,8 @@
       <c r="Q446" s="219"/>
     </row>
     <row r="447" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A447" s="223"/>
-      <c r="B447" s="224"/>
+      <c r="A447" s="260"/>
+      <c r="B447" s="261"/>
       <c r="C447" s="44" t="s">
         <v>697</v>
       </c>
@@ -23502,7 +23498,7 @@
       <c r="Q447" s="219"/>
     </row>
     <row r="448" spans="1:17" ht="24">
-      <c r="A448" s="223"/>
+      <c r="A448" s="260"/>
       <c r="B448" s="2" t="s">
         <v>699</v>
       </c>
@@ -23539,8 +23535,8 @@
       <c r="Q448" s="137"/>
     </row>
     <row r="449" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A449" s="223"/>
-      <c r="B449" s="222" t="s">
+      <c r="A449" s="260"/>
+      <c r="B449" s="259" t="s">
         <v>692</v>
       </c>
       <c r="C449" s="44"/>
@@ -23576,8 +23572,8 @@
       <c r="Q449" s="219"/>
     </row>
     <row r="450" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A450" s="223"/>
-      <c r="B450" s="223"/>
+      <c r="A450" s="260"/>
+      <c r="B450" s="260"/>
       <c r="C450" s="44"/>
       <c r="D450" s="147" t="s">
         <v>1482</v>
@@ -23609,8 +23605,8 @@
       <c r="Q450" s="219"/>
     </row>
     <row r="451" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A451" s="223"/>
-      <c r="B451" s="223"/>
+      <c r="A451" s="260"/>
+      <c r="B451" s="260"/>
       <c r="C451" s="44"/>
       <c r="D451" s="147" t="s">
         <v>1482</v>
@@ -23642,8 +23638,8 @@
       <c r="Q451" s="219"/>
     </row>
     <row r="452" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A452" s="223"/>
-      <c r="B452" s="223"/>
+      <c r="A452" s="260"/>
+      <c r="B452" s="260"/>
       <c r="C452" s="44"/>
       <c r="D452" s="147" t="s">
         <v>1482</v>
@@ -23675,8 +23671,8 @@
       <c r="Q452" s="219"/>
     </row>
     <row r="453" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A453" s="223"/>
-      <c r="B453" s="223"/>
+      <c r="A453" s="260"/>
+      <c r="B453" s="260"/>
       <c r="C453" s="44"/>
       <c r="D453" s="147" t="s">
         <v>1482</v>
@@ -23708,8 +23704,8 @@
       <c r="Q453" s="219"/>
     </row>
     <row r="454" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A454" s="223"/>
-      <c r="B454" s="223"/>
+      <c r="A454" s="260"/>
+      <c r="B454" s="260"/>
       <c r="C454" s="44"/>
       <c r="D454" s="147" t="s">
         <v>1482</v>
@@ -23741,8 +23737,8 @@
       <c r="Q454" s="219"/>
     </row>
     <row r="455" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A455" s="223"/>
-      <c r="B455" s="223"/>
+      <c r="A455" s="260"/>
+      <c r="B455" s="260"/>
       <c r="C455" s="44"/>
       <c r="D455" s="147" t="s">
         <v>1482</v>
@@ -23774,8 +23770,8 @@
       <c r="Q455" s="219"/>
     </row>
     <row r="456" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A456" s="223"/>
-      <c r="B456" s="223"/>
+      <c r="A456" s="260"/>
+      <c r="B456" s="260"/>
       <c r="C456" s="44"/>
       <c r="D456" s="147" t="s">
         <v>1482</v>
@@ -23807,8 +23803,8 @@
       <c r="Q456" s="219"/>
     </row>
     <row r="457" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A457" s="223"/>
-      <c r="B457" s="223"/>
+      <c r="A457" s="260"/>
+      <c r="B457" s="260"/>
       <c r="C457" s="44"/>
       <c r="D457" s="147" t="s">
         <v>1482</v>
@@ -23840,8 +23836,8 @@
       <c r="Q457" s="219"/>
     </row>
     <row r="458" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A458" s="223"/>
-      <c r="B458" s="223"/>
+      <c r="A458" s="260"/>
+      <c r="B458" s="260"/>
       <c r="C458" s="44"/>
       <c r="D458" s="147" t="s">
         <v>1482</v>
@@ -23875,8 +23871,8 @@
       <c r="Q458" s="22"/>
     </row>
     <row r="459" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A459" s="223"/>
-      <c r="B459" s="223"/>
+      <c r="A459" s="260"/>
+      <c r="B459" s="260"/>
       <c r="C459" s="44"/>
       <c r="D459" s="147" t="s">
         <v>1482</v>
@@ -23908,8 +23904,8 @@
       <c r="Q459" s="22"/>
     </row>
     <row r="460" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A460" s="223"/>
-      <c r="B460" s="223"/>
+      <c r="A460" s="260"/>
+      <c r="B460" s="260"/>
       <c r="C460" s="44"/>
       <c r="D460" s="147" t="s">
         <v>1482</v>
@@ -23941,8 +23937,8 @@
       <c r="Q460" s="22"/>
     </row>
     <row r="461" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A461" s="223"/>
-      <c r="B461" s="223"/>
+      <c r="A461" s="260"/>
+      <c r="B461" s="260"/>
       <c r="C461" s="44"/>
       <c r="D461" s="147" t="s">
         <v>1482</v>
@@ -23974,8 +23970,8 @@
       <c r="Q461" s="22"/>
     </row>
     <row r="462" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A462" s="223"/>
-      <c r="B462" s="223"/>
+      <c r="A462" s="260"/>
+      <c r="B462" s="260"/>
       <c r="C462" s="44"/>
       <c r="D462" s="147" t="s">
         <v>1482</v>
@@ -24007,8 +24003,8 @@
       <c r="Q462" s="22"/>
     </row>
     <row r="463" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A463" s="223"/>
-      <c r="B463" s="223"/>
+      <c r="A463" s="260"/>
+      <c r="B463" s="260"/>
       <c r="C463" s="44"/>
       <c r="D463" s="147" t="s">
         <v>1482</v>
@@ -24040,8 +24036,8 @@
       <c r="Q463" s="22"/>
     </row>
     <row r="464" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A464" s="223"/>
-      <c r="B464" s="223"/>
+      <c r="A464" s="260"/>
+      <c r="B464" s="260"/>
       <c r="C464" s="44"/>
       <c r="D464" s="147" t="s">
         <v>1482</v>
@@ -24073,8 +24069,8 @@
       <c r="Q464" s="22"/>
     </row>
     <row r="465" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A465" s="223"/>
-      <c r="B465" s="224"/>
+      <c r="A465" s="260"/>
+      <c r="B465" s="261"/>
       <c r="C465" s="44"/>
       <c r="D465" s="147" t="s">
         <v>1482</v>
@@ -24106,18 +24102,18 @@
       <c r="Q465" s="22"/>
     </row>
     <row r="466" spans="1:17" ht="33" customHeight="1">
-      <c r="A466" s="221"/>
-      <c r="B466" s="221"/>
-      <c r="C466" s="221"/>
-      <c r="D466" s="221"/>
-      <c r="E466" s="221"/>
-      <c r="F466" s="221"/>
-      <c r="G466" s="221"/>
-      <c r="H466" s="221"/>
-      <c r="I466" s="221"/>
-      <c r="J466" s="221"/>
-      <c r="K466" s="221"/>
-      <c r="L466" s="221"/>
+      <c r="A466" s="264"/>
+      <c r="B466" s="264"/>
+      <c r="C466" s="264"/>
+      <c r="D466" s="264"/>
+      <c r="E466" s="264"/>
+      <c r="F466" s="264"/>
+      <c r="G466" s="264"/>
+      <c r="H466" s="264"/>
+      <c r="I466" s="264"/>
+      <c r="J466" s="264"/>
+      <c r="K466" s="264"/>
+      <c r="L466" s="264"/>
       <c r="M466" s="204"/>
       <c r="N466" s="23">
         <f>SUM(N4:N465)</f>
@@ -24146,12 +24142,64 @@
   </sheetData>
   <autoFilter ref="A3:Q3" xr:uid="{205A9215-EF55-4F25-89BE-CF0A9D724DE1}"/>
   <mergeCells count="80">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A466:L466"/>
+    <mergeCell ref="A417:A419"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="A420:A441"/>
+    <mergeCell ref="B420:B422"/>
+    <mergeCell ref="B423:B424"/>
+    <mergeCell ref="B425:B428"/>
+    <mergeCell ref="B429:B440"/>
+    <mergeCell ref="A408:A415"/>
+    <mergeCell ref="C341:C342"/>
+    <mergeCell ref="D341:D342"/>
+    <mergeCell ref="C344:C350"/>
+    <mergeCell ref="A442:A465"/>
+    <mergeCell ref="B443:B444"/>
+    <mergeCell ref="B446:B447"/>
+    <mergeCell ref="B449:B465"/>
+    <mergeCell ref="A331:A407"/>
+    <mergeCell ref="B331:B333"/>
+    <mergeCell ref="B334:B359"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="C353:C358"/>
+    <mergeCell ref="B360:B367"/>
+    <mergeCell ref="C360:C364"/>
+    <mergeCell ref="B368:B372"/>
+    <mergeCell ref="B374:B404"/>
+    <mergeCell ref="C374:C390"/>
+    <mergeCell ref="C393:C404"/>
+    <mergeCell ref="B405:B407"/>
+    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="B219:B226"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="A307:A330"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B309:B321"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="B322:B326"/>
+    <mergeCell ref="A138:A306"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="B327:B328"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="B155:B207"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B131:B136"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="Q80:Q85"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="B102:B117"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="C109:C115"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="B40:B42"/>
@@ -24168,64 +24216,12 @@
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="B61:B77"/>
     <mergeCell ref="C63:C74"/>
-    <mergeCell ref="Q80:Q85"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="B102:B117"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="B155:B207"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B131:B136"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="A307:A330"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="B309:B321"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="B322:B326"/>
-    <mergeCell ref="A138:A306"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="B327:B328"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="B374:B404"/>
-    <mergeCell ref="C374:C390"/>
-    <mergeCell ref="C393:C404"/>
-    <mergeCell ref="B405:B407"/>
-    <mergeCell ref="B208:B212"/>
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="B219:B226"/>
-    <mergeCell ref="A408:A415"/>
-    <mergeCell ref="C341:C342"/>
-    <mergeCell ref="D341:D342"/>
-    <mergeCell ref="C344:C350"/>
-    <mergeCell ref="A442:A465"/>
-    <mergeCell ref="B443:B444"/>
-    <mergeCell ref="B446:B447"/>
-    <mergeCell ref="B449:B465"/>
-    <mergeCell ref="A331:A407"/>
-    <mergeCell ref="B331:B333"/>
-    <mergeCell ref="B334:B359"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="C353:C358"/>
-    <mergeCell ref="B360:B367"/>
-    <mergeCell ref="C360:C364"/>
-    <mergeCell ref="B368:B372"/>
-    <mergeCell ref="A466:L466"/>
-    <mergeCell ref="A417:A419"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="A420:A441"/>
-    <mergeCell ref="B420:B422"/>
-    <mergeCell ref="B423:B424"/>
-    <mergeCell ref="B425:B428"/>
-    <mergeCell ref="B429:B440"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -27446,26 +27442,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="274" t="s">
         <v>1076</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="263"/>
-      <c r="M1" s="263"/>
-      <c r="N1" s="263"/>
-      <c r="O1" s="263"/>
-      <c r="P1" s="263"/>
-      <c r="Q1" s="263"/>
-      <c r="R1" s="263"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221"/>
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="221"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
@@ -27488,31 +27484,31 @@
       <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="222" t="s">
         <v>354</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="276"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="264" t="s">
+      <c r="H3" s="222" t="s">
         <v>355</v>
       </c>
-      <c r="I3" s="265"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="264" t="s">
+      <c r="I3" s="223"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="222" t="s">
         <v>356</v>
       </c>
-      <c r="L3" s="265"/>
-      <c r="M3" s="265"/>
-      <c r="N3" s="276"/>
-      <c r="O3" s="267" t="s">
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="275"/>
+      <c r="O3" s="225" t="s">
         <v>357</v>
       </c>
-      <c r="P3" s="267"/>
-      <c r="Q3" s="267"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
       <c r="R3" s="14" t="s">
         <v>358</v>
       </c>
@@ -27599,7 +27595,7 @@
       <c r="A6" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B6" s="272" t="s">
+      <c r="B6" s="268" t="s">
         <v>1026</v>
       </c>
       <c r="C6" s="110" t="s">
@@ -27625,7 +27621,7 @@
       <c r="A7" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B7" s="273"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="110" t="s">
         <v>1027</v>
       </c>
@@ -27649,7 +27645,7 @@
       <c r="A8" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B8" s="273"/>
+      <c r="B8" s="269"/>
       <c r="C8" s="110" t="s">
         <v>1061</v>
       </c>
@@ -27673,7 +27669,7 @@
       <c r="A9" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B9" s="273"/>
+      <c r="B9" s="269"/>
       <c r="C9" s="110" t="s">
         <v>978</v>
       </c>
@@ -27697,7 +27693,7 @@
       <c r="A10" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B10" s="273"/>
+      <c r="B10" s="269"/>
       <c r="C10" s="110" t="s">
         <v>1028</v>
       </c>
@@ -27723,7 +27719,7 @@
       <c r="A11" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B11" s="273"/>
+      <c r="B11" s="269"/>
       <c r="C11" s="110"/>
       <c r="D11" s="110" t="s">
         <v>1030</v>
@@ -27747,7 +27743,7 @@
       <c r="A12" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B12" s="273"/>
+      <c r="B12" s="269"/>
       <c r="C12" s="110" t="s">
         <v>18</v>
       </c>
@@ -27771,7 +27767,7 @@
       <c r="A13" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B13" s="273"/>
+      <c r="B13" s="269"/>
       <c r="C13" s="110" t="s">
         <v>144</v>
       </c>
@@ -27795,7 +27791,7 @@
       <c r="A14" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B14" s="273"/>
+      <c r="B14" s="269"/>
       <c r="C14" s="110" t="s">
         <v>145</v>
       </c>
@@ -27819,7 +27815,7 @@
       <c r="A15" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B15" s="274"/>
+      <c r="B15" s="270"/>
       <c r="C15" s="110" t="s">
         <v>198</v>
       </c>
@@ -27843,7 +27839,7 @@
       <c r="A16" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B16" s="272" t="s">
+      <c r="B16" s="268" t="s">
         <v>1031</v>
       </c>
       <c r="C16" s="110" t="s">
@@ -27871,7 +27867,7 @@
       <c r="A17" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B17" s="273"/>
+      <c r="B17" s="269"/>
       <c r="C17" s="110"/>
       <c r="D17" s="110" t="s">
         <v>1063</v>
@@ -27895,7 +27891,7 @@
       <c r="A18" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B18" s="273"/>
+      <c r="B18" s="269"/>
       <c r="C18" s="110"/>
       <c r="D18" s="110" t="s">
         <v>1064</v>
@@ -27919,7 +27915,7 @@
       <c r="A19" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B19" s="273"/>
+      <c r="B19" s="269"/>
       <c r="C19" s="110"/>
       <c r="D19" s="110" t="s">
         <v>1065</v>
@@ -27943,7 +27939,7 @@
       <c r="A20" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B20" s="273"/>
+      <c r="B20" s="269"/>
       <c r="C20" s="110"/>
       <c r="D20" s="110" t="s">
         <v>1066</v>
@@ -27967,7 +27963,7 @@
       <c r="A21" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B21" s="273"/>
+      <c r="B21" s="269"/>
       <c r="C21" s="110" t="s">
         <v>1033</v>
       </c>
@@ -27993,7 +27989,7 @@
       <c r="A22" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B22" s="273"/>
+      <c r="B22" s="269"/>
       <c r="C22" s="110"/>
       <c r="D22" s="110" t="s">
         <v>1068</v>
@@ -28017,7 +28013,7 @@
       <c r="A23" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B23" s="273"/>
+      <c r="B23" s="269"/>
       <c r="C23" s="110"/>
       <c r="D23" s="110" t="s">
         <v>1069</v>
@@ -28041,7 +28037,7 @@
       <c r="A24" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B24" s="273"/>
+      <c r="B24" s="269"/>
       <c r="C24" s="110"/>
       <c r="D24" s="110" t="s">
         <v>1070</v>
@@ -28065,7 +28061,7 @@
       <c r="A25" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B25" s="273"/>
+      <c r="B25" s="269"/>
       <c r="C25" s="110" t="s">
         <v>1071</v>
       </c>
@@ -28091,7 +28087,7 @@
       <c r="A26" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B26" s="273"/>
+      <c r="B26" s="269"/>
       <c r="C26" s="110"/>
       <c r="D26" s="110" t="s">
         <v>1034</v>
@@ -28115,7 +28111,7 @@
       <c r="A27" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B27" s="273"/>
+      <c r="B27" s="269"/>
       <c r="C27" s="110"/>
       <c r="D27" s="110" t="s">
         <v>1072</v>
@@ -28139,7 +28135,7 @@
       <c r="A28" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B28" s="273"/>
+      <c r="B28" s="269"/>
       <c r="C28" s="110"/>
       <c r="D28" s="110" t="s">
         <v>1073</v>
@@ -28163,7 +28159,7 @@
       <c r="A29" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B29" s="274"/>
+      <c r="B29" s="270"/>
       <c r="C29" s="110"/>
       <c r="D29" s="110" t="s">
         <v>908</v>
@@ -28187,7 +28183,7 @@
       <c r="A30" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B30" s="269" t="s">
+      <c r="B30" s="271" t="s">
         <v>1036</v>
       </c>
       <c r="C30" s="91" t="s">
@@ -28213,7 +28209,7 @@
       <c r="A31" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B31" s="270"/>
+      <c r="B31" s="272"/>
       <c r="C31" s="91" t="s">
         <v>1038</v>
       </c>
@@ -28241,7 +28237,7 @@
       <c r="A32" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B32" s="270"/>
+      <c r="B32" s="272"/>
       <c r="C32" s="110"/>
       <c r="D32" s="110"/>
       <c r="E32" s="83" t="s">
@@ -28265,7 +28261,7 @@
       <c r="A33" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B33" s="270"/>
+      <c r="B33" s="272"/>
       <c r="C33" s="110"/>
       <c r="D33" s="110"/>
       <c r="E33" s="83" t="s">
@@ -28289,7 +28285,7 @@
       <c r="A34" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B34" s="270"/>
+      <c r="B34" s="272"/>
       <c r="C34" s="110"/>
       <c r="D34" s="110" t="s">
         <v>1106</v>
@@ -28315,7 +28311,7 @@
       <c r="A35" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B35" s="270"/>
+      <c r="B35" s="272"/>
       <c r="C35" s="110"/>
       <c r="D35" s="110"/>
       <c r="E35" s="83" t="s">
@@ -28339,7 +28335,7 @@
       <c r="A36" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B36" s="270"/>
+      <c r="B36" s="272"/>
       <c r="C36" s="110"/>
       <c r="D36" s="110"/>
       <c r="E36" s="83" t="s">
@@ -28363,7 +28359,7 @@
       <c r="A37" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B37" s="270"/>
+      <c r="B37" s="272"/>
       <c r="C37" s="110"/>
       <c r="D37" s="110"/>
       <c r="E37" s="83" t="s">
@@ -28387,7 +28383,7 @@
       <c r="A38" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B38" s="270"/>
+      <c r="B38" s="272"/>
       <c r="C38" s="110"/>
       <c r="D38" s="110" t="s">
         <v>1109</v>
@@ -28413,7 +28409,7 @@
       <c r="A39" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B39" s="270"/>
+      <c r="B39" s="272"/>
       <c r="C39" s="110"/>
       <c r="D39" s="110"/>
       <c r="E39" s="83" t="s">
@@ -28437,7 +28433,7 @@
       <c r="A40" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B40" s="270"/>
+      <c r="B40" s="272"/>
       <c r="C40" s="110"/>
       <c r="D40" s="110"/>
       <c r="E40" s="83" t="s">
@@ -28461,7 +28457,7 @@
       <c r="A41" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B41" s="270"/>
+      <c r="B41" s="272"/>
       <c r="C41" s="110"/>
       <c r="D41" s="110"/>
       <c r="E41" s="83" t="s">
@@ -28485,7 +28481,7 @@
       <c r="A42" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B42" s="270"/>
+      <c r="B42" s="272"/>
       <c r="C42" s="110"/>
       <c r="D42" s="110" t="s">
         <v>1110</v>
@@ -28511,7 +28507,7 @@
       <c r="A43" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B43" s="270"/>
+      <c r="B43" s="272"/>
       <c r="C43" s="110"/>
       <c r="D43" s="110"/>
       <c r="E43" s="83" t="s">
@@ -28535,7 +28531,7 @@
       <c r="A44" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B44" s="270"/>
+      <c r="B44" s="272"/>
       <c r="C44" s="110"/>
       <c r="D44" s="110"/>
       <c r="E44" s="83" t="s">
@@ -28559,7 +28555,7 @@
       <c r="A45" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B45" s="270"/>
+      <c r="B45" s="272"/>
       <c r="C45" s="110"/>
       <c r="D45" s="110"/>
       <c r="E45" s="83" t="s">
@@ -28583,7 +28579,7 @@
       <c r="A46" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B46" s="270"/>
+      <c r="B46" s="272"/>
       <c r="C46" s="110"/>
       <c r="D46" s="110" t="s">
         <v>1111</v>
@@ -28609,7 +28605,7 @@
       <c r="A47" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B47" s="270"/>
+      <c r="B47" s="272"/>
       <c r="C47" s="110"/>
       <c r="D47" s="110"/>
       <c r="E47" s="83" t="s">
@@ -28633,7 +28629,7 @@
       <c r="A48" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B48" s="270"/>
+      <c r="B48" s="272"/>
       <c r="C48" s="110"/>
       <c r="D48" s="110"/>
       <c r="E48" s="83" t="s">
@@ -28657,7 +28653,7 @@
       <c r="A49" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B49" s="270"/>
+      <c r="B49" s="272"/>
       <c r="C49" s="110"/>
       <c r="D49" s="110"/>
       <c r="E49" s="83" t="s">
@@ -28681,7 +28677,7 @@
       <c r="A50" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B50" s="270"/>
+      <c r="B50" s="272"/>
       <c r="C50" s="91"/>
       <c r="D50" s="91" t="s">
         <v>1039</v>
@@ -28707,7 +28703,7 @@
       <c r="A51" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B51" s="270"/>
+      <c r="B51" s="272"/>
       <c r="C51" s="91"/>
       <c r="D51" s="91"/>
       <c r="E51" s="91" t="s">
@@ -28731,7 +28727,7 @@
       <c r="A52" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B52" s="270"/>
+      <c r="B52" s="272"/>
       <c r="C52" s="91"/>
       <c r="D52" s="91" t="s">
         <v>1041</v>
@@ -28755,7 +28751,7 @@
       <c r="A53" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B53" s="270"/>
+      <c r="B53" s="272"/>
       <c r="C53" s="91"/>
       <c r="D53" s="91" t="s">
         <v>1042</v>
@@ -28781,7 +28777,7 @@
       <c r="A54" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B54" s="270"/>
+      <c r="B54" s="272"/>
       <c r="C54" s="91"/>
       <c r="D54" s="91"/>
       <c r="E54" s="91" t="s">
@@ -28805,7 +28801,7 @@
       <c r="A55" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B55" s="270"/>
+      <c r="B55" s="272"/>
       <c r="C55" s="91"/>
       <c r="D55" s="91"/>
       <c r="E55" s="91" t="s">
@@ -28829,7 +28825,7 @@
       <c r="A56" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B56" s="270"/>
+      <c r="B56" s="272"/>
       <c r="C56" s="91"/>
       <c r="D56" s="91"/>
       <c r="E56" s="91" t="s">
@@ -28853,7 +28849,7 @@
       <c r="A57" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B57" s="270"/>
+      <c r="B57" s="272"/>
       <c r="C57" s="91"/>
       <c r="D57" s="91" t="s">
         <v>1006</v>
@@ -28881,7 +28877,7 @@
       <c r="A58" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B58" s="270"/>
+      <c r="B58" s="272"/>
       <c r="C58" s="91"/>
       <c r="D58" s="91"/>
       <c r="E58" s="91" t="s">
@@ -28907,7 +28903,7 @@
       <c r="A59" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B59" s="270"/>
+      <c r="B59" s="272"/>
       <c r="C59" s="91"/>
       <c r="D59" s="91"/>
       <c r="E59" s="91" t="s">
@@ -28931,7 +28927,7 @@
       <c r="A60" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B60" s="271"/>
+      <c r="B60" s="273"/>
       <c r="C60" s="91"/>
       <c r="D60" s="91"/>
       <c r="E60" s="91" t="s">
@@ -28957,7 +28953,7 @@
       <c r="A61" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B61" s="272" t="s">
+      <c r="B61" s="268" t="s">
         <v>1047</v>
       </c>
       <c r="C61" s="110" t="s">
@@ -28983,7 +28979,7 @@
       <c r="A62" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B62" s="273"/>
+      <c r="B62" s="269"/>
       <c r="C62" s="91" t="s">
         <v>1049</v>
       </c>
@@ -29009,7 +29005,7 @@
       <c r="A63" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B63" s="273"/>
+      <c r="B63" s="269"/>
       <c r="C63" s="91"/>
       <c r="D63" s="91" t="s">
         <v>1051</v>
@@ -29033,7 +29029,7 @@
       <c r="A64" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B64" s="273"/>
+      <c r="B64" s="269"/>
       <c r="C64" s="91"/>
       <c r="D64" s="91" t="s">
         <v>1052</v>
@@ -29057,7 +29053,7 @@
       <c r="A65" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B65" s="273"/>
+      <c r="B65" s="269"/>
       <c r="C65" s="91" t="s">
         <v>1053</v>
       </c>
@@ -29083,7 +29079,7 @@
       <c r="A66" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B66" s="273"/>
+      <c r="B66" s="269"/>
       <c r="C66" s="91"/>
       <c r="D66" s="91" t="s">
         <v>1055</v>
@@ -29107,7 +29103,7 @@
       <c r="A67" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B67" s="273"/>
+      <c r="B67" s="269"/>
       <c r="C67" s="91" t="s">
         <v>1056</v>
       </c>
@@ -29133,7 +29129,7 @@
       <c r="A68" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B68" s="273"/>
+      <c r="B68" s="269"/>
       <c r="C68" s="91"/>
       <c r="D68" s="91" t="s">
         <v>1055</v>
@@ -29157,7 +29153,7 @@
       <c r="A69" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B69" s="273"/>
+      <c r="B69" s="269"/>
       <c r="C69" s="91" t="s">
         <v>1057</v>
       </c>
@@ -29183,7 +29179,7 @@
       <c r="A70" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B70" s="273"/>
+      <c r="B70" s="269"/>
       <c r="C70" s="91"/>
       <c r="D70" s="91" t="s">
         <v>1055</v>
@@ -29207,7 +29203,7 @@
       <c r="A71" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B71" s="273"/>
+      <c r="B71" s="269"/>
       <c r="C71" s="91" t="s">
         <v>1058</v>
       </c>
@@ -29233,7 +29229,7 @@
       <c r="A72" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B72" s="273"/>
+      <c r="B72" s="269"/>
       <c r="C72" s="91"/>
       <c r="D72" s="91" t="s">
         <v>1055</v>
@@ -29257,7 +29253,7 @@
       <c r="A73" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B73" s="273"/>
+      <c r="B73" s="269"/>
       <c r="C73" s="91" t="s">
         <v>1059</v>
       </c>
@@ -29283,7 +29279,7 @@
       <c r="A74" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B74" s="273"/>
+      <c r="B74" s="269"/>
       <c r="C74" s="91"/>
       <c r="D74" s="91" t="s">
         <v>1055</v>
@@ -29307,7 +29303,7 @@
       <c r="A75" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B75" s="273"/>
+      <c r="B75" s="269"/>
       <c r="C75" s="91" t="s">
         <v>1060</v>
       </c>
@@ -29333,7 +29329,7 @@
       <c r="A76" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B76" s="274"/>
+      <c r="B76" s="270"/>
       <c r="C76" s="91"/>
       <c r="D76" s="91" t="s">
         <v>1127</v>
@@ -29381,7 +29377,7 @@
       <c r="A78" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="269" t="s">
+      <c r="B78" s="271" t="s">
         <v>214</v>
       </c>
       <c r="C78" s="91" t="s">
@@ -29407,7 +29403,7 @@
       <c r="A79" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B79" s="270"/>
+      <c r="B79" s="272"/>
       <c r="C79" s="91" t="s">
         <v>548</v>
       </c>
@@ -29433,7 +29429,7 @@
       <c r="A80" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B80" s="270"/>
+      <c r="B80" s="272"/>
       <c r="C80" s="91"/>
       <c r="D80" s="91" t="s">
         <v>309</v>
@@ -29457,7 +29453,7 @@
       <c r="A81" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B81" s="270"/>
+      <c r="B81" s="272"/>
       <c r="C81" s="91" t="s">
         <v>549</v>
       </c>
@@ -29483,7 +29479,7 @@
       <c r="A82" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="270"/>
+      <c r="B82" s="272"/>
       <c r="C82" s="44"/>
       <c r="D82" s="91" t="s">
         <v>309</v>
@@ -29507,7 +29503,7 @@
       <c r="A83" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B83" s="270"/>
+      <c r="B83" s="272"/>
       <c r="C83" s="91" t="s">
         <v>1077</v>
       </c>
@@ -29533,7 +29529,7 @@
       <c r="A84" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="270"/>
+      <c r="B84" s="272"/>
       <c r="C84" s="91"/>
       <c r="D84" s="91" t="s">
         <v>309</v>
@@ -29557,7 +29553,7 @@
       <c r="A85" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="270"/>
+      <c r="B85" s="272"/>
       <c r="C85" s="91" t="s">
         <v>1079</v>
       </c>
@@ -29583,7 +29579,7 @@
       <c r="A86" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B86" s="270"/>
+      <c r="B86" s="272"/>
       <c r="C86" s="91"/>
       <c r="D86" s="91" t="s">
         <v>309</v>
@@ -29607,7 +29603,7 @@
       <c r="A87" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B87" s="270"/>
+      <c r="B87" s="272"/>
       <c r="C87" s="44" t="s">
         <v>550</v>
       </c>
@@ -29631,7 +29627,7 @@
       <c r="A88" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="270"/>
+      <c r="B88" s="272"/>
       <c r="C88" s="91" t="s">
         <v>551</v>
       </c>
@@ -29655,7 +29651,7 @@
       <c r="A89" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B89" s="270"/>
+      <c r="B89" s="272"/>
       <c r="C89" s="91" t="s">
         <v>332</v>
       </c>
@@ -29679,7 +29675,7 @@
       <c r="A90" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B90" s="270"/>
+      <c r="B90" s="272"/>
       <c r="C90" s="91" t="s">
         <v>552</v>
       </c>
@@ -29703,7 +29699,7 @@
       <c r="A91" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B91" s="271"/>
+      <c r="B91" s="273"/>
       <c r="C91" s="91" t="s">
         <v>553</v>
       </c>
@@ -29727,7 +29723,7 @@
       <c r="A92" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B92" s="269" t="s">
+      <c r="B92" s="271" t="s">
         <v>1080</v>
       </c>
       <c r="C92" s="91" t="s">
@@ -29757,7 +29753,7 @@
       <c r="A93" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="270"/>
+      <c r="B93" s="272"/>
       <c r="C93" s="91" t="s">
         <v>556</v>
       </c>
@@ -29789,7 +29785,7 @@
       <c r="A94" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B94" s="270"/>
+      <c r="B94" s="272"/>
       <c r="C94" s="91"/>
       <c r="D94" s="91" t="s">
         <v>584</v>
@@ -29817,7 +29813,7 @@
       <c r="A95" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B95" s="271"/>
+      <c r="B95" s="273"/>
       <c r="C95" s="91" t="s">
         <v>554</v>
       </c>
@@ -29847,7 +29843,7 @@
       <c r="A96" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B96" s="269" t="s">
+      <c r="B96" s="271" t="s">
         <v>1082</v>
       </c>
       <c r="C96" s="91" t="s">
@@ -29879,7 +29875,7 @@
       <c r="A97" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="270"/>
+      <c r="B97" s="272"/>
       <c r="C97" s="91"/>
       <c r="D97" s="91" t="s">
         <v>587</v>
@@ -29907,7 +29903,7 @@
       <c r="A98" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="270"/>
+      <c r="B98" s="272"/>
       <c r="C98" s="44" t="s">
         <v>559</v>
       </c>
@@ -29935,7 +29931,7 @@
       <c r="A99" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B99" s="270"/>
+      <c r="B99" s="272"/>
       <c r="C99" s="91" t="s">
         <v>560</v>
       </c>
@@ -29965,7 +29961,7 @@
       <c r="A100" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B100" s="271"/>
+      <c r="B100" s="273"/>
       <c r="C100" s="91" t="s">
         <v>561</v>
       </c>
@@ -29997,7 +29993,7 @@
       <c r="A101" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B101" s="269" t="s">
+      <c r="B101" s="271" t="s">
         <v>562</v>
       </c>
       <c r="C101" s="91" t="s">
@@ -30029,7 +30025,7 @@
       <c r="A102" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B102" s="270"/>
+      <c r="B102" s="272"/>
       <c r="C102" s="91"/>
       <c r="D102" s="91" t="s">
         <v>589</v>
@@ -30061,7 +30057,7 @@
       <c r="A103" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B103" s="270"/>
+      <c r="B103" s="272"/>
       <c r="C103" s="91"/>
       <c r="D103" s="91" t="s">
         <v>590</v>
@@ -30093,7 +30089,7 @@
       <c r="A104" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B104" s="270"/>
+      <c r="B104" s="272"/>
       <c r="C104" s="91" t="s">
         <v>189</v>
       </c>
@@ -30123,7 +30119,7 @@
       <c r="A105" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B105" s="270"/>
+      <c r="B105" s="272"/>
       <c r="C105" s="44" t="s">
         <v>563</v>
       </c>
@@ -30157,7 +30153,7 @@
       <c r="A106" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B106" s="270"/>
+      <c r="B106" s="272"/>
       <c r="C106" s="91"/>
       <c r="D106" s="91" t="s">
         <v>243</v>
@@ -30189,7 +30185,7 @@
       <c r="A107" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B107" s="270"/>
+      <c r="B107" s="272"/>
       <c r="C107" s="91" t="s">
         <v>564</v>
       </c>
@@ -30217,7 +30213,7 @@
       <c r="A108" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="270"/>
+      <c r="B108" s="272"/>
       <c r="C108" s="91"/>
       <c r="D108" s="91" t="s">
         <v>593</v>
@@ -30245,7 +30241,7 @@
       <c r="A109" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="271"/>
+      <c r="B109" s="273"/>
       <c r="C109" s="91"/>
       <c r="D109" s="91" t="s">
         <v>594</v>
@@ -30273,7 +30269,7 @@
       <c r="A110" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="269" t="s">
+      <c r="B110" s="271" t="s">
         <v>565</v>
       </c>
       <c r="C110" s="83" t="s">
@@ -30307,7 +30303,7 @@
       <c r="A111" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B111" s="270"/>
+      <c r="B111" s="272"/>
       <c r="C111" s="83"/>
       <c r="D111" s="83" t="s">
         <v>596</v>
@@ -30337,7 +30333,7 @@
       <c r="A112" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="270"/>
+      <c r="B112" s="272"/>
       <c r="C112" s="83"/>
       <c r="D112" s="83" t="s">
         <v>597</v>
@@ -30367,7 +30363,7 @@
       <c r="A113" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B113" s="270"/>
+      <c r="B113" s="272"/>
       <c r="C113" s="91" t="s">
         <v>567</v>
       </c>
@@ -30396,7 +30392,7 @@
       <c r="A114" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="270"/>
+      <c r="B114" s="272"/>
       <c r="C114" s="91" t="s">
         <v>568</v>
       </c>
@@ -30426,7 +30422,7 @@
       <c r="A115" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="271"/>
+      <c r="B115" s="273"/>
       <c r="C115" s="44" t="s">
         <v>569</v>
       </c>
@@ -30456,7 +30452,7 @@
       <c r="A116" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="269" t="s">
+      <c r="B116" s="271" t="s">
         <v>570</v>
       </c>
       <c r="C116" s="91" t="s">
@@ -30490,7 +30486,7 @@
       <c r="A117" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="270"/>
+      <c r="B117" s="272"/>
       <c r="C117" s="91" t="s">
         <v>572</v>
       </c>
@@ -30522,7 +30518,7 @@
       <c r="A118" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="271"/>
+      <c r="B118" s="273"/>
       <c r="C118" s="91" t="s">
         <v>573</v>
       </c>
@@ -30552,7 +30548,7 @@
       <c r="A119" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="269" t="s">
+      <c r="B119" s="271" t="s">
         <v>574</v>
       </c>
       <c r="C119" s="91" t="s">
@@ -30582,7 +30578,7 @@
       <c r="A120" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B120" s="270"/>
+      <c r="B120" s="272"/>
       <c r="C120" s="91" t="s">
         <v>576</v>
       </c>
@@ -30610,7 +30606,7 @@
       <c r="A121" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B121" s="270"/>
+      <c r="B121" s="272"/>
       <c r="C121" s="91" t="s">
         <v>577</v>
       </c>
@@ -30638,7 +30634,7 @@
       <c r="A122" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B122" s="271"/>
+      <c r="B122" s="273"/>
       <c r="C122" s="91" t="s">
         <v>578</v>
       </c>
@@ -30666,7 +30662,7 @@
       <c r="A123" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B123" s="269" t="s">
+      <c r="B123" s="271" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="91" t="s">
@@ -30713,7 +30709,7 @@
       <c r="A124" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B124" s="270"/>
+      <c r="B124" s="272"/>
       <c r="C124" s="91" t="s">
         <v>599</v>
       </c>
@@ -30758,7 +30754,7 @@
       <c r="A125" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="270"/>
+      <c r="B125" s="272"/>
       <c r="C125" s="91" t="s">
         <v>600</v>
       </c>
@@ -30803,7 +30799,7 @@
       <c r="A126" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B126" s="270"/>
+      <c r="B126" s="272"/>
       <c r="C126" s="91" t="s">
         <v>601</v>
       </c>
@@ -30848,7 +30844,7 @@
       <c r="A127" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="270"/>
+      <c r="B127" s="272"/>
       <c r="C127" s="91" t="s">
         <v>602</v>
       </c>
@@ -30893,7 +30889,7 @@
       <c r="A128" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B128" s="270"/>
+      <c r="B128" s="272"/>
       <c r="C128" s="91" t="s">
         <v>603</v>
       </c>
@@ -30938,7 +30934,7 @@
       <c r="A129" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B129" s="270"/>
+      <c r="B129" s="272"/>
       <c r="C129" s="91" t="s">
         <v>604</v>
       </c>
@@ -30983,7 +30979,7 @@
       <c r="A130" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B130" s="270"/>
+      <c r="B130" s="272"/>
       <c r="C130" s="91" t="s">
         <v>605</v>
       </c>
@@ -31028,7 +31024,7 @@
       <c r="A131" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B131" s="270"/>
+      <c r="B131" s="272"/>
       <c r="C131" s="91" t="s">
         <v>606</v>
       </c>
@@ -31073,7 +31069,7 @@
       <c r="A132" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="270"/>
+      <c r="B132" s="272"/>
       <c r="C132" s="91" t="s">
         <v>607</v>
       </c>
@@ -31118,7 +31114,7 @@
       <c r="A133" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B133" s="270"/>
+      <c r="B133" s="272"/>
       <c r="C133" s="91" t="s">
         <v>608</v>
       </c>
@@ -31163,7 +31159,7 @@
       <c r="A134" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B134" s="270"/>
+      <c r="B134" s="272"/>
       <c r="C134" s="91" t="s">
         <v>609</v>
       </c>
@@ -31208,7 +31204,7 @@
       <c r="A135" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B135" s="270"/>
+      <c r="B135" s="272"/>
       <c r="C135" s="91" t="s">
         <v>610</v>
       </c>
@@ -31253,7 +31249,7 @@
       <c r="A136" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B136" s="270"/>
+      <c r="B136" s="272"/>
       <c r="C136" s="91" t="s">
         <v>611</v>
       </c>
@@ -31298,7 +31294,7 @@
       <c r="A137" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B137" s="270"/>
+      <c r="B137" s="272"/>
       <c r="C137" s="91" t="s">
         <v>612</v>
       </c>
@@ -31343,7 +31339,7 @@
       <c r="A138" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="270"/>
+      <c r="B138" s="272"/>
       <c r="C138" s="91" t="s">
         <v>613</v>
       </c>
@@ -31388,7 +31384,7 @@
       <c r="A139" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B139" s="271"/>
+      <c r="B139" s="273"/>
       <c r="C139" s="91" t="s">
         <v>614</v>
       </c>
@@ -44422,22 +44418,22 @@
       <c r="R550" s="22"/>
     </row>
     <row r="551" spans="1:18" ht="33" customHeight="1">
-      <c r="A551" s="268" t="s">
+      <c r="A551" s="276" t="s">
         <v>381</v>
       </c>
-      <c r="B551" s="221"/>
-      <c r="C551" s="221"/>
-      <c r="D551" s="221"/>
-      <c r="E551" s="221"/>
-      <c r="F551" s="221"/>
-      <c r="G551" s="221"/>
-      <c r="H551" s="221"/>
-      <c r="I551" s="221"/>
-      <c r="J551" s="221"/>
-      <c r="K551" s="221"/>
-      <c r="L551" s="221"/>
-      <c r="M551" s="221"/>
-      <c r="N551" s="221"/>
+      <c r="B551" s="264"/>
+      <c r="C551" s="264"/>
+      <c r="D551" s="264"/>
+      <c r="E551" s="264"/>
+      <c r="F551" s="264"/>
+      <c r="G551" s="264"/>
+      <c r="H551" s="264"/>
+      <c r="I551" s="264"/>
+      <c r="J551" s="264"/>
+      <c r="K551" s="264"/>
+      <c r="L551" s="264"/>
+      <c r="M551" s="264"/>
+      <c r="N551" s="264"/>
       <c r="O551" s="23">
         <f>SUM(O5:O550)</f>
         <v>40</v>
@@ -44466,14 +44462,6 @@
   </sheetData>
   <autoFilter ref="A4:R4" xr:uid="{205A9215-EF55-4F25-89BE-CF0A9D724DE1}"/>
   <mergeCells count="18">
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B16:B29"/>
     <mergeCell ref="A551:N551"/>
     <mergeCell ref="B30:B60"/>
     <mergeCell ref="B61:B76"/>
@@ -44484,6 +44472,14 @@
     <mergeCell ref="B110:B115"/>
     <mergeCell ref="B116:B118"/>
     <mergeCell ref="B123:B139"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B16:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
